--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B542752-7601-2742-89B6-33E08482328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD59AAF-A3D2-3047-A83B-283D61323AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,21 +770,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -805,12 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -843,6 +844,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2001,62 +2023,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="52" customWidth="1"/>
     <col min="7" max="10" width="16.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="52" customWidth="1"/>
     <col min="12" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="57" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="52" customWidth="1"/>
     <col min="17" max="20" width="16.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="57" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" style="52" customWidth="1"/>
     <col min="22" max="22" width="16.33203125" style="1" customWidth="1"/>
     <col min="23" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39">
-        <v>0</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59">
-        <v>1</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59">
-        <v>2</v>
-      </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59">
+      <c r="B1" s="64">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67">
+        <v>1</v>
+      </c>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67">
+        <v>2</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67">
         <v>3</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="58"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
     </row>
     <row r="2" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2074,10 +2096,10 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2089,10 +2111,10 @@
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -2104,10 +2126,10 @@
       <c r="O2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -2119,7 +2141,7 @@
       <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="U2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2127,7 +2149,7 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="41">
         <v>0</v>
       </c>
       <c r="C3" s="28">
@@ -2137,8 +2159,8 @@
         <v>0</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="46">
+      <c r="F3" s="46"/>
+      <c r="G3" s="41">
         <v>0</v>
       </c>
       <c r="H3" s="28">
@@ -2148,8 +2170,8 @@
         <v>0</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="46">
+      <c r="K3" s="46"/>
+      <c r="L3" s="41">
         <v>0</v>
       </c>
       <c r="M3" s="28">
@@ -2159,27 +2181,27 @@
         <v>0</v>
       </c>
       <c r="O3" s="9"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="66">
-        <f>-1667+10000</f>
-        <v>8333</v>
-      </c>
-      <c r="R3" s="65">
-        <f>8383+0</f>
-        <v>8383</v>
-      </c>
-      <c r="S3" s="65">
-        <f>-6717+12521</f>
-        <v>5804</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="51"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="59" cm="1">
+        <f t="array" ref="Q3">BankRound((-1667+10000)*0.5)</f>
+        <v>4166</v>
+      </c>
+      <c r="R3" s="58" cm="1">
+        <f t="array" ref="R3">BankRound((8383+0)*0.5)</f>
+        <v>4192</v>
+      </c>
+      <c r="S3" s="58" cm="1">
+        <f t="array" ref="S3">BankRound((-6717+12521)*0.5)</f>
+        <v>2902</v>
+      </c>
+      <c r="T3" s="58"/>
+      <c r="U3" s="46"/>
     </row>
     <row r="4" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="42">
         <v>0</v>
       </c>
       <c r="C4" s="31">
@@ -2189,8 +2211,8 @@
         <v>0</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="47">
+      <c r="F4" s="47"/>
+      <c r="G4" s="42">
         <v>0</v>
       </c>
       <c r="H4" s="31">
@@ -2200,8 +2222,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="47">
+      <c r="K4" s="47"/>
+      <c r="L4" s="42">
         <v>0</v>
       </c>
       <c r="M4" s="31">
@@ -2211,24 +2233,24 @@
         <v>0</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="67">
-        <v>0</v>
-      </c>
-      <c r="R4" s="68">
-        <v>0</v>
-      </c>
-      <c r="S4" s="68">
-        <v>0</v>
-      </c>
-      <c r="T4" s="69"/>
-      <c r="U4" s="52"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="60">
+        <v>0</v>
+      </c>
+      <c r="R4" s="61">
+        <v>0</v>
+      </c>
+      <c r="S4" s="61">
+        <v>0</v>
+      </c>
+      <c r="T4" s="62"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="42">
         <v>0</v>
       </c>
       <c r="C5" s="31">
@@ -2236,8 +2258,8 @@
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="47">
+      <c r="F5" s="47"/>
+      <c r="G5" s="42">
         <v>0</v>
       </c>
       <c r="H5" s="31">
@@ -2245,8 +2267,8 @@
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="47">
+      <c r="K5" s="47"/>
+      <c r="L5" s="42">
         <v>0</v>
       </c>
       <c r="M5" s="31">
@@ -2254,22 +2276,24 @@
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="67">
-        <v>-5050</v>
-      </c>
-      <c r="R5" s="68">
-        <v>5050</v>
-      </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="52"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="60" cm="1">
+        <f t="array" ref="Q5">BankRound((-5050)*0.5)</f>
+        <v>-2525</v>
+      </c>
+      <c r="R5" s="61" cm="1">
+        <f t="array" ref="R5">BankRound((5050)*0.5)</f>
+        <v>2525</v>
+      </c>
+      <c r="S5" s="61"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="31">
         <v>0</v>
       </c>
@@ -2277,8 +2301,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="31">
         <v>0</v>
       </c>
@@ -2286,8 +2310,8 @@
         <v>0</v>
       </c>
       <c r="J6" s="14"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="31">
         <v>0</v>
       </c>
@@ -2295,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68">
-        <v>0</v>
-      </c>
-      <c r="S6" s="68">
-        <v>0</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="52"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="61">
+        <v>0</v>
+      </c>
+      <c r="S6" s="61">
+        <v>0</v>
+      </c>
+      <c r="T6" s="62"/>
+      <c r="U6" s="47"/>
     </row>
     <row r="7" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="42">
         <v>0</v>
       </c>
       <c r="C7" s="31">
@@ -2318,8 +2342,8 @@
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="47">
+      <c r="F7" s="47"/>
+      <c r="G7" s="42">
         <v>0</v>
       </c>
       <c r="H7" s="31">
@@ -2327,8 +2351,8 @@
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="47">
+      <c r="K7" s="47"/>
+      <c r="L7" s="42">
         <v>0</v>
       </c>
       <c r="M7" s="31">
@@ -2336,22 +2360,22 @@
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="67">
-        <v>0</v>
-      </c>
-      <c r="R7" s="68">
-        <v>0</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="52"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="60">
+        <v>0</v>
+      </c>
+      <c r="R7" s="61">
+        <v>0</v>
+      </c>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="47"/>
     </row>
     <row r="8" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="42">
         <v>0</v>
       </c>
       <c r="C8" s="31">
@@ -2359,8 +2383,8 @@
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="47">
+      <c r="F8" s="47"/>
+      <c r="G8" s="42">
         <v>0</v>
       </c>
       <c r="H8" s="31">
@@ -2368,8 +2392,8 @@
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="47">
+      <c r="K8" s="47"/>
+      <c r="L8" s="42">
         <v>0</v>
       </c>
       <c r="M8" s="31">
@@ -2377,22 +2401,24 @@
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="67">
-        <v>-5075</v>
-      </c>
-      <c r="R8" s="68">
-        <v>5075</v>
-      </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="52"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="60" cm="1">
+        <f t="array" ref="Q8">BankRound((-5075)*0.5)</f>
+        <v>-2538</v>
+      </c>
+      <c r="R8" s="61" cm="1">
+        <f t="array" ref="R8">BankRound((5075)*0.5)</f>
+        <v>2538</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="47"/>
     </row>
     <row r="9" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="42">
         <v>0</v>
       </c>
       <c r="C9" s="31">
@@ -2400,8 +2426,8 @@
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="47">
+      <c r="F9" s="47"/>
+      <c r="G9" s="42">
         <v>0</v>
       </c>
       <c r="H9" s="31">
@@ -2409,8 +2435,8 @@
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="47">
+      <c r="K9" s="47"/>
+      <c r="L9" s="42">
         <v>0</v>
       </c>
       <c r="M9" s="31">
@@ -2418,8 +2444,8 @@
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="47">
+      <c r="P9" s="47"/>
+      <c r="Q9" s="42">
         <v>0</v>
       </c>
       <c r="R9" s="31">
@@ -2427,13 +2453,13 @@
       </c>
       <c r="S9" s="31"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="52"/>
+      <c r="U9" s="47"/>
     </row>
     <row r="10" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="42">
         <v>0</v>
       </c>
       <c r="C10" s="31">
@@ -2441,8 +2467,8 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="47">
+      <c r="F10" s="47"/>
+      <c r="G10" s="42">
         <v>0</v>
       </c>
       <c r="H10" s="31">
@@ -2450,8 +2476,8 @@
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="47">
+      <c r="K10" s="47"/>
+      <c r="L10" s="42">
         <v>0</v>
       </c>
       <c r="M10" s="31">
@@ -2459,8 +2485,8 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="47">
+      <c r="P10" s="47"/>
+      <c r="Q10" s="42">
         <v>0</v>
       </c>
       <c r="R10" s="31">
@@ -2468,13 +2494,13 @@
       </c>
       <c r="S10" s="31"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="52"/>
+      <c r="U10" s="47"/>
     </row>
     <row r="11" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="42">
         <v>0</v>
       </c>
       <c r="C11" s="31">
@@ -2484,8 +2510,8 @@
         <v>0</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="47">
+      <c r="F11" s="47"/>
+      <c r="G11" s="42">
         <v>0</v>
       </c>
       <c r="H11" s="31">
@@ -2495,8 +2521,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="47">
+      <c r="K11" s="47"/>
+      <c r="L11" s="42">
         <v>0</v>
       </c>
       <c r="M11" s="31">
@@ -2506,8 +2532,8 @@
         <v>0</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="47">
+      <c r="P11" s="47"/>
+      <c r="Q11" s="42">
         <v>0</v>
       </c>
       <c r="R11" s="31">
@@ -2517,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="52"/>
+      <c r="U11" s="47"/>
     </row>
     <row r="12" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="31">
         <v>0</v>
       </c>
@@ -2531,8 +2557,8 @@
         <v>0</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="31">
         <v>0</v>
       </c>
@@ -2540,8 +2566,8 @@
         <v>0</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="31">
         <v>0</v>
       </c>
@@ -2549,8 +2575,8 @@
         <v>0</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="31">
         <v>0</v>
       </c>
@@ -2558,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="14"/>
-      <c r="U12" s="52"/>
+      <c r="U12" s="47"/>
     </row>
     <row r="13" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="42">
         <v>0</v>
       </c>
       <c r="C13" s="31">
@@ -2572,8 +2598,8 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="47">
+      <c r="F13" s="47"/>
+      <c r="G13" s="42">
         <v>0</v>
       </c>
       <c r="H13" s="31">
@@ -2581,8 +2607,8 @@
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="47">
+      <c r="K13" s="47"/>
+      <c r="L13" s="42">
         <v>0</v>
       </c>
       <c r="M13" s="31">
@@ -2590,8 +2616,8 @@
       </c>
       <c r="N13" s="31"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="47">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="42">
         <v>0</v>
       </c>
       <c r="R13" s="31">
@@ -2599,13 +2625,13 @@
       </c>
       <c r="S13" s="31"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="52"/>
+      <c r="U13" s="47"/>
     </row>
     <row r="14" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="42">
         <v>0</v>
       </c>
       <c r="C14" s="31">
@@ -2613,8 +2639,8 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="47">
+      <c r="F14" s="47"/>
+      <c r="G14" s="42">
         <v>0</v>
       </c>
       <c r="H14" s="31">
@@ -2622,8 +2648,8 @@
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="47">
+      <c r="K14" s="47"/>
+      <c r="L14" s="42">
         <v>0</v>
       </c>
       <c r="M14" s="31">
@@ -2631,8 +2657,8 @@
       </c>
       <c r="N14" s="31"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="47">
+      <c r="P14" s="47"/>
+      <c r="Q14" s="42">
         <v>0</v>
       </c>
       <c r="R14" s="31">
@@ -2640,13 +2666,13 @@
       </c>
       <c r="S14" s="31"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="52"/>
+      <c r="U14" s="47"/>
     </row>
     <row r="15" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="42">
         <v>0</v>
       </c>
       <c r="C15" s="31">
@@ -2654,8 +2680,8 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="47">
+      <c r="F15" s="47"/>
+      <c r="G15" s="42">
         <v>0</v>
       </c>
       <c r="H15" s="31">
@@ -2663,8 +2689,8 @@
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="47">
+      <c r="K15" s="47"/>
+      <c r="L15" s="42">
         <v>0</v>
       </c>
       <c r="M15" s="31">
@@ -2672,8 +2698,8 @@
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="47">
+      <c r="P15" s="47"/>
+      <c r="Q15" s="42">
         <v>0</v>
       </c>
       <c r="R15" s="31">
@@ -2681,13 +2707,13 @@
       </c>
       <c r="S15" s="31"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="52"/>
+      <c r="U15" s="47"/>
     </row>
     <row r="16" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="42">
         <v>0</v>
       </c>
       <c r="C16" s="31">
@@ -2695,8 +2721,8 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="47">
+      <c r="F16" s="47"/>
+      <c r="G16" s="42">
         <v>0</v>
       </c>
       <c r="H16" s="31">
@@ -2704,8 +2730,8 @@
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="47">
+      <c r="K16" s="47"/>
+      <c r="L16" s="42">
         <v>0</v>
       </c>
       <c r="M16" s="31">
@@ -2713,8 +2739,8 @@
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="47">
+      <c r="P16" s="47"/>
+      <c r="Q16" s="42">
         <v>0</v>
       </c>
       <c r="R16" s="31">
@@ -2722,13 +2748,13 @@
       </c>
       <c r="S16" s="31"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="52"/>
+      <c r="U16" s="47"/>
     </row>
     <row r="17" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="31">
         <v>0</v>
       </c>
@@ -2736,8 +2762,8 @@
         <v>0</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="31">
         <v>0</v>
       </c>
@@ -2745,8 +2771,8 @@
         <v>0</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="31">
         <v>0</v>
       </c>
@@ -2754,8 +2780,8 @@
         <v>0</v>
       </c>
       <c r="O17" s="14"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="42"/>
       <c r="R17" s="31">
         <v>0</v>
       </c>
@@ -2763,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="52"/>
+      <c r="U17" s="47"/>
     </row>
     <row r="18" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="42">
         <v>0</v>
       </c>
       <c r="C18" s="31">
@@ -2777,8 +2803,8 @@
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="47">
+      <c r="F18" s="47"/>
+      <c r="G18" s="42">
         <v>0</v>
       </c>
       <c r="H18" s="31">
@@ -2786,8 +2812,8 @@
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="47">
+      <c r="K18" s="47"/>
+      <c r="L18" s="42">
         <v>0</v>
       </c>
       <c r="M18" s="31">
@@ -2795,8 +2821,8 @@
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="47">
+      <c r="P18" s="47"/>
+      <c r="Q18" s="42">
         <v>0</v>
       </c>
       <c r="R18" s="31">
@@ -2804,13 +2830,13 @@
       </c>
       <c r="S18" s="31"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="52"/>
+      <c r="U18" s="47"/>
     </row>
     <row r="19" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="42">
         <v>0</v>
       </c>
       <c r="C19" s="31">
@@ -2818,8 +2844,8 @@
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="47">
+      <c r="F19" s="47"/>
+      <c r="G19" s="42">
         <v>0</v>
       </c>
       <c r="H19" s="31">
@@ -2827,8 +2853,8 @@
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="47">
+      <c r="K19" s="47"/>
+      <c r="L19" s="42">
         <v>0</v>
       </c>
       <c r="M19" s="31">
@@ -2836,8 +2862,8 @@
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="47">
+      <c r="P19" s="47"/>
+      <c r="Q19" s="42">
         <v>0</v>
       </c>
       <c r="R19" s="31">
@@ -2845,13 +2871,13 @@
       </c>
       <c r="S19" s="31"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="52"/>
+      <c r="U19" s="47"/>
     </row>
     <row r="20" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="43">
         <v>0</v>
       </c>
       <c r="C20" s="34">
@@ -2859,8 +2885,8 @@
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="48">
+      <c r="F20" s="48"/>
+      <c r="G20" s="43">
         <v>0</v>
       </c>
       <c r="H20" s="34">
@@ -2868,8 +2894,8 @@
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="48">
+      <c r="K20" s="48"/>
+      <c r="L20" s="43">
         <v>0</v>
       </c>
       <c r="M20" s="34">
@@ -2877,8 +2903,8 @@
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="48">
+      <c r="P20" s="48"/>
+      <c r="Q20" s="43">
         <v>0</v>
       </c>
       <c r="R20" s="34">
@@ -2886,7 +2912,7 @@
       </c>
       <c r="S20" s="34"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="53"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
@@ -2900,8 +2926,8 @@
         <v>0</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="37">
         <v>0</v>
       </c>
@@ -2909,8 +2935,8 @@
         <v>0</v>
       </c>
       <c r="J21" s="23"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="60"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="23">
         <v>0</v>
       </c>
@@ -2918,8 +2944,8 @@
         <v>0</v>
       </c>
       <c r="O21" s="23"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="49"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="37">
         <v>0</v>
       </c>
@@ -2927,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="23"/>
-      <c r="U21" s="54"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
@@ -2941,8 +2967,8 @@
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="47">
+      <c r="F22" s="50"/>
+      <c r="G22" s="42">
         <v>0</v>
       </c>
       <c r="H22" s="31">
@@ -2950,8 +2976,8 @@
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="61">
+      <c r="K22" s="50"/>
+      <c r="L22" s="54">
         <v>0</v>
       </c>
       <c r="M22" s="14">
@@ -2959,8 +2985,8 @@
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="47">
+      <c r="P22" s="47"/>
+      <c r="Q22" s="42">
         <v>0</v>
       </c>
       <c r="R22" s="31">
@@ -2968,7 +2994,7 @@
       </c>
       <c r="S22" s="31"/>
       <c r="T22" s="14"/>
-      <c r="U22" s="55"/>
+      <c r="U22" s="50"/>
     </row>
     <row r="23" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
@@ -2982,8 +3008,8 @@
         <v>0</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="31">
         <v>0</v>
       </c>
@@ -2991,8 +3017,8 @@
         <v>0</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="61"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="14">
         <v>0</v>
       </c>
@@ -3000,8 +3026,8 @@
         <v>0</v>
       </c>
       <c r="O23" s="14"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="31">
         <v>0</v>
       </c>
@@ -3009,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="14"/>
-      <c r="U23" s="55"/>
+      <c r="U23" s="50"/>
     </row>
     <row r="24" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
@@ -3023,8 +3049,8 @@
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="47">
+      <c r="F24" s="50"/>
+      <c r="G24" s="42">
         <v>0</v>
       </c>
       <c r="H24" s="31">
@@ -3032,8 +3058,8 @@
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="61">
+      <c r="K24" s="50"/>
+      <c r="L24" s="54">
         <v>0</v>
       </c>
       <c r="M24" s="14">
@@ -3041,8 +3067,8 @@
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="47">
+      <c r="P24" s="47"/>
+      <c r="Q24" s="42">
         <v>0</v>
       </c>
       <c r="R24" s="31">
@@ -3050,22 +3076,22 @@
       </c>
       <c r="S24" s="31"/>
       <c r="T24" s="14"/>
-      <c r="U24" s="55"/>
+      <c r="U24" s="50"/>
     </row>
     <row r="25" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>4</v>
       </c>
       <c r="B25" s="30"/>
-      <c r="C25" s="68">
-        <v>0</v>
-      </c>
-      <c r="D25" s="68">
-        <v>0</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="61">
+        <v>0</v>
+      </c>
+      <c r="D25" s="61">
+        <v>0</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="31">
         <v>0</v>
       </c>
@@ -3073,8 +3099,8 @@
         <v>0</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="61"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="14">
         <v>0</v>
       </c>
@@ -3082,8 +3108,8 @@
         <v>0</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="31">
         <v>0</v>
       </c>
@@ -3091,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="55"/>
+      <c r="U25" s="50"/>
     </row>
     <row r="26" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
@@ -3100,13 +3126,13 @@
       <c r="B26" s="30">
         <v>0</v>
       </c>
-      <c r="C26" s="68">
-        <v>0</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="47">
+      <c r="C26" s="61">
+        <v>0</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="42">
         <v>0</v>
       </c>
       <c r="H26" s="31">
@@ -3114,17 +3140,19 @@
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="62">
-        <v>4950</v>
-      </c>
-      <c r="M26" s="44">
-        <v>-4950</v>
+      <c r="K26" s="50"/>
+      <c r="L26" s="55" cm="1">
+        <f t="array" ref="L26">BankRound((4950)*0.5)</f>
+        <v>2475</v>
+      </c>
+      <c r="M26" s="39" cm="1">
+        <f t="array" ref="M26">BankRound((-4950)*0.5)</f>
+        <v>-2475</v>
       </c>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="47">
+      <c r="P26" s="47"/>
+      <c r="Q26" s="42">
         <v>0</v>
       </c>
       <c r="R26" s="31">
@@ -3132,22 +3160,24 @@
       </c>
       <c r="S26" s="31"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="55"/>
+      <c r="U26" s="50"/>
     </row>
     <row r="27" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>6</v>
       </c>
       <c r="B27" s="30"/>
-      <c r="C27" s="68">
-        <v>-2371</v>
-      </c>
-      <c r="D27" s="68">
-        <v>2371</v>
-      </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="47"/>
+      <c r="C27" s="61" cm="1">
+        <f t="array" ref="C27">BankRound((-2371)*0.5)</f>
+        <v>-1186</v>
+      </c>
+      <c r="D27" s="61" cm="1">
+        <f t="array" ref="D27">BankRound((2371)*0.5)</f>
+        <v>1186</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="31">
         <v>0</v>
       </c>
@@ -3155,8 +3185,8 @@
         <v>0</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="61"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="14">
         <v>0</v>
       </c>
@@ -3164,8 +3194,8 @@
         <v>0</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="31">
         <v>0</v>
       </c>
@@ -3173,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="55"/>
+      <c r="U27" s="50"/>
     </row>
     <row r="28" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
@@ -3182,13 +3212,13 @@
       <c r="B28" s="30">
         <v>0</v>
       </c>
-      <c r="C28" s="68">
-        <v>0</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="47">
+      <c r="C28" s="61">
+        <v>0</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="42">
         <v>0</v>
       </c>
       <c r="H28" s="31">
@@ -3196,8 +3226,8 @@
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="61">
+      <c r="K28" s="50"/>
+      <c r="L28" s="54">
         <v>0</v>
       </c>
       <c r="M28" s="14">
@@ -3205,8 +3235,8 @@
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="47">
+      <c r="P28" s="47"/>
+      <c r="Q28" s="42">
         <v>0</v>
       </c>
       <c r="R28" s="31">
@@ -3214,22 +3244,22 @@
       </c>
       <c r="S28" s="31"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="55"/>
+      <c r="U28" s="50"/>
     </row>
     <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>8</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="68">
-        <v>0</v>
-      </c>
-      <c r="D29" s="68">
-        <v>0</v>
-      </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="47"/>
+      <c r="C29" s="61">
+        <v>0</v>
+      </c>
+      <c r="D29" s="61">
+        <v>0</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="31">
         <v>0</v>
       </c>
@@ -3237,8 +3267,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="61"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="14">
         <v>0</v>
       </c>
@@ -3246,8 +3276,8 @@
         <v>0</v>
       </c>
       <c r="O29" s="14"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="31">
         <v>0</v>
       </c>
@@ -3255,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="55"/>
+      <c r="U29" s="50"/>
     </row>
     <row r="30" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
@@ -3269,8 +3299,8 @@
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="47">
+      <c r="F30" s="50"/>
+      <c r="G30" s="42">
         <v>0</v>
       </c>
       <c r="H30" s="31">
@@ -3278,8 +3308,8 @@
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="61">
+      <c r="K30" s="50"/>
+      <c r="L30" s="54">
         <v>0</v>
       </c>
       <c r="M30" s="14">
@@ -3287,8 +3317,8 @@
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="47">
+      <c r="P30" s="47"/>
+      <c r="Q30" s="42">
         <v>0</v>
       </c>
       <c r="R30" s="31">
@@ -3296,7 +3326,7 @@
       </c>
       <c r="S30" s="31"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="55"/>
+      <c r="U30" s="50"/>
     </row>
     <row r="31" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
@@ -3310,8 +3340,8 @@
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="47">
+      <c r="F31" s="50"/>
+      <c r="G31" s="42">
         <v>0</v>
       </c>
       <c r="H31" s="31">
@@ -3319,8 +3349,8 @@
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="61">
+      <c r="K31" s="50"/>
+      <c r="L31" s="54">
         <v>0</v>
       </c>
       <c r="M31" s="14">
@@ -3328,8 +3358,8 @@
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="47">
+      <c r="P31" s="47"/>
+      <c r="Q31" s="42">
         <v>0</v>
       </c>
       <c r="R31" s="31">
@@ -3337,7 +3367,7 @@
       </c>
       <c r="S31" s="31"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="55"/>
+      <c r="U31" s="50"/>
     </row>
     <row r="32" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
@@ -3351,8 +3381,8 @@
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="47">
+      <c r="F32" s="50"/>
+      <c r="G32" s="42">
         <v>0</v>
       </c>
       <c r="H32" s="31">
@@ -3360,8 +3390,8 @@
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="61">
+      <c r="K32" s="50"/>
+      <c r="L32" s="54">
         <v>0</v>
       </c>
       <c r="M32" s="14">
@@ -3369,8 +3399,8 @@
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="47">
+      <c r="P32" s="47"/>
+      <c r="Q32" s="42">
         <v>0</v>
       </c>
       <c r="R32" s="31">
@@ -3378,7 +3408,7 @@
       </c>
       <c r="S32" s="31"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="55"/>
+      <c r="U32" s="50"/>
     </row>
     <row r="33" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
@@ -3392,8 +3422,8 @@
         <v>0</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="31">
         <v>0</v>
       </c>
@@ -3401,8 +3431,8 @@
         <v>0</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="61"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="14">
         <v>0</v>
       </c>
@@ -3410,8 +3440,8 @@
         <v>0</v>
       </c>
       <c r="O33" s="14"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="42"/>
       <c r="R33" s="31">
         <v>0</v>
       </c>
@@ -3419,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="14"/>
-      <c r="U33" s="55"/>
+      <c r="U33" s="50"/>
     </row>
     <row r="34" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
@@ -3433,8 +3463,8 @@
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="47">
+      <c r="F34" s="50"/>
+      <c r="G34" s="42">
         <v>0</v>
       </c>
       <c r="H34" s="31">
@@ -3442,8 +3472,8 @@
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="61">
+      <c r="K34" s="50"/>
+      <c r="L34" s="54">
         <v>0</v>
       </c>
       <c r="M34" s="14">
@@ -3451,8 +3481,8 @@
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="47">
+      <c r="P34" s="47"/>
+      <c r="Q34" s="42">
         <v>0</v>
       </c>
       <c r="R34" s="31">
@@ -3460,7 +3490,7 @@
       </c>
       <c r="S34" s="31"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="55"/>
+      <c r="U34" s="50"/>
     </row>
     <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
@@ -3474,8 +3504,8 @@
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="47">
+      <c r="F35" s="50"/>
+      <c r="G35" s="42">
         <v>0</v>
       </c>
       <c r="H35" s="31">
@@ -3483,8 +3513,8 @@
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="61">
+      <c r="K35" s="50"/>
+      <c r="L35" s="54">
         <v>0</v>
       </c>
       <c r="M35" s="14">
@@ -3492,8 +3522,8 @@
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="47">
+      <c r="P35" s="47"/>
+      <c r="Q35" s="42">
         <v>0</v>
       </c>
       <c r="R35" s="31">
@@ -3501,7 +3531,7 @@
       </c>
       <c r="S35" s="31"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="55"/>
+      <c r="U35" s="50"/>
     </row>
     <row r="36" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
@@ -3515,8 +3545,8 @@
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="47">
+      <c r="F36" s="50"/>
+      <c r="G36" s="42">
         <v>0</v>
       </c>
       <c r="H36" s="31">
@@ -3524,8 +3554,8 @@
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="61">
+      <c r="K36" s="50"/>
+      <c r="L36" s="54">
         <v>0</v>
       </c>
       <c r="M36" s="14">
@@ -3533,8 +3563,8 @@
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="47">
+      <c r="P36" s="47"/>
+      <c r="Q36" s="42">
         <v>0</v>
       </c>
       <c r="R36" s="31">
@@ -3542,7 +3572,7 @@
       </c>
       <c r="S36" s="31"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="50"/>
     </row>
     <row r="37" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
@@ -3556,8 +3586,8 @@
         <v>0</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="47"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="31">
         <v>0</v>
       </c>
@@ -3565,8 +3595,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="61"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="14">
         <v>0</v>
       </c>
@@ -3574,8 +3604,8 @@
         <v>0</v>
       </c>
       <c r="O37" s="14"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="42"/>
       <c r="R37" s="31">
         <v>0</v>
       </c>
@@ -3583,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="14"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="50"/>
     </row>
     <row r="38" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
@@ -3597,8 +3627,8 @@
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="47">
+      <c r="F38" s="50"/>
+      <c r="G38" s="42">
         <v>0</v>
       </c>
       <c r="H38" s="31">
@@ -3606,8 +3636,8 @@
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="61">
+      <c r="K38" s="50"/>
+      <c r="L38" s="54">
         <v>0</v>
       </c>
       <c r="M38" s="14">
@@ -3615,8 +3645,8 @@
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="47">
+      <c r="P38" s="47"/>
+      <c r="Q38" s="42">
         <v>0</v>
       </c>
       <c r="R38" s="31">
@@ -3624,7 +3654,7 @@
       </c>
       <c r="S38" s="31"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="50"/>
     </row>
     <row r="39" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
@@ -3638,8 +3668,8 @@
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="47">
+      <c r="F39" s="50"/>
+      <c r="G39" s="42">
         <v>0</v>
       </c>
       <c r="H39" s="31">
@@ -3647,8 +3677,8 @@
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="61">
+      <c r="K39" s="50"/>
+      <c r="L39" s="54">
         <v>0</v>
       </c>
       <c r="M39" s="14">
@@ -3656,8 +3686,8 @@
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="47">
+      <c r="P39" s="47"/>
+      <c r="Q39" s="42">
         <v>0</v>
       </c>
       <c r="R39" s="31">
@@ -3665,7 +3695,7 @@
       </c>
       <c r="S39" s="31"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="50"/>
     </row>
     <row r="40" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
@@ -3679,8 +3709,8 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="48">
+      <c r="F40" s="51"/>
+      <c r="G40" s="43">
         <v>0</v>
       </c>
       <c r="H40" s="34">
@@ -3688,8 +3718,8 @@
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="63">
+      <c r="K40" s="51"/>
+      <c r="L40" s="56">
         <v>0</v>
       </c>
       <c r="M40" s="19">
@@ -3697,8 +3727,8 @@
       </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="48">
+      <c r="P40" s="48"/>
+      <c r="Q40" s="43">
         <v>0</v>
       </c>
       <c r="R40" s="34">
@@ -3706,7 +3736,7 @@
       </c>
       <c r="S40" s="34"/>
       <c r="T40" s="19"/>
-      <c r="U40" s="56"/>
+      <c r="U40" s="51"/>
     </row>
     <row r="41" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="22">
@@ -3722,8 +3752,8 @@
       <c r="E41" s="37">
         <v>0</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="37">
         <v>0</v>
       </c>
@@ -3733,8 +3763,8 @@
       <c r="J41" s="37">
         <v>0</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="37">
         <v>0</v>
       </c>
@@ -3744,8 +3774,8 @@
       <c r="O41" s="37">
         <v>0</v>
       </c>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="44"/>
       <c r="R41" s="37">
         <v>0</v>
       </c>
@@ -3755,7 +3785,7 @@
       <c r="T41" s="37">
         <v>0</v>
       </c>
-      <c r="U41" s="54"/>
+      <c r="U41" s="49"/>
     </row>
     <row r="42" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
@@ -3769,8 +3799,8 @@
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="47">
+      <c r="F42" s="50"/>
+      <c r="G42" s="42">
         <v>0</v>
       </c>
       <c r="H42" s="31">
@@ -3778,8 +3808,8 @@
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="47">
+      <c r="K42" s="50"/>
+      <c r="L42" s="42">
         <v>0</v>
       </c>
       <c r="M42" s="31">
@@ -3787,8 +3817,8 @@
       </c>
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="47">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="42">
         <v>0</v>
       </c>
       <c r="R42" s="31">
@@ -3796,7 +3826,7 @@
       </c>
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
-      <c r="U42" s="55"/>
+      <c r="U42" s="50"/>
     </row>
     <row r="43" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
@@ -3812,8 +3842,8 @@
       <c r="E43" s="31">
         <v>0</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="47"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="31">
         <v>0</v>
       </c>
@@ -3823,8 +3853,8 @@
       <c r="J43" s="31">
         <v>0</v>
       </c>
-      <c r="K43" s="55"/>
-      <c r="L43" s="47"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="42"/>
       <c r="M43" s="31">
         <v>0</v>
       </c>
@@ -3834,8 +3864,8 @@
       <c r="O43" s="31">
         <v>0</v>
       </c>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="47"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="42"/>
       <c r="R43" s="31">
         <v>0</v>
       </c>
@@ -3845,7 +3875,7 @@
       <c r="T43" s="31">
         <v>0</v>
       </c>
-      <c r="U43" s="55"/>
+      <c r="U43" s="50"/>
     </row>
     <row r="44" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
@@ -3859,8 +3889,8 @@
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="47">
+      <c r="F44" s="50"/>
+      <c r="G44" s="42">
         <v>0</v>
       </c>
       <c r="H44" s="31">
@@ -3868,8 +3898,8 @@
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="47">
+      <c r="K44" s="50"/>
+      <c r="L44" s="42">
         <v>0</v>
       </c>
       <c r="M44" s="31">
@@ -3877,8 +3907,8 @@
       </c>
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="47">
+      <c r="P44" s="50"/>
+      <c r="Q44" s="42">
         <v>0</v>
       </c>
       <c r="R44" s="31">
@@ -3886,7 +3916,7 @@
       </c>
       <c r="S44" s="31"/>
       <c r="T44" s="31"/>
-      <c r="U44" s="55"/>
+      <c r="U44" s="50"/>
     </row>
     <row r="45" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
@@ -3902,8 +3932,8 @@
         <v>0</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="47">
+      <c r="F45" s="50"/>
+      <c r="G45" s="42">
         <v>0</v>
       </c>
       <c r="H45" s="31">
@@ -3913,8 +3943,8 @@
         <v>0</v>
       </c>
       <c r="J45" s="31"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="47">
+      <c r="K45" s="50"/>
+      <c r="L45" s="42">
         <v>0</v>
       </c>
       <c r="M45" s="31">
@@ -3924,8 +3954,8 @@
         <v>0</v>
       </c>
       <c r="O45" s="31"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="47">
+      <c r="P45" s="50"/>
+      <c r="Q45" s="42">
         <v>0</v>
       </c>
       <c r="R45" s="31">
@@ -3935,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="31"/>
-      <c r="U45" s="55"/>
+      <c r="U45" s="50"/>
     </row>
     <row r="46" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
@@ -3949,8 +3979,8 @@
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="47">
+      <c r="F46" s="50"/>
+      <c r="G46" s="42">
         <v>0</v>
       </c>
       <c r="H46" s="31">
@@ -3958,8 +3988,8 @@
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="47">
+      <c r="K46" s="50"/>
+      <c r="L46" s="42">
         <v>0</v>
       </c>
       <c r="M46" s="31">
@@ -3967,8 +3997,8 @@
       </c>
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="47">
+      <c r="P46" s="50"/>
+      <c r="Q46" s="42">
         <v>0</v>
       </c>
       <c r="R46" s="31">
@@ -3976,7 +4006,7 @@
       </c>
       <c r="S46" s="31"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="55"/>
+      <c r="U46" s="50"/>
     </row>
     <row r="47" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
@@ -3992,8 +4022,8 @@
         <v>0</v>
       </c>
       <c r="E47" s="31"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="47">
+      <c r="F47" s="50"/>
+      <c r="G47" s="42">
         <v>0</v>
       </c>
       <c r="H47" s="31">
@@ -4003,8 +4033,8 @@
         <v>0</v>
       </c>
       <c r="J47" s="31"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="47">
+      <c r="K47" s="50"/>
+      <c r="L47" s="42">
         <v>0</v>
       </c>
       <c r="M47" s="31">
@@ -4014,8 +4044,8 @@
         <v>0</v>
       </c>
       <c r="O47" s="31"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="47">
+      <c r="P47" s="50"/>
+      <c r="Q47" s="42">
         <v>0</v>
       </c>
       <c r="R47" s="31">
@@ -4025,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="31"/>
-      <c r="U47" s="55"/>
+      <c r="U47" s="50"/>
     </row>
     <row r="48" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
@@ -4039,8 +4069,8 @@
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="47">
+      <c r="F48" s="50"/>
+      <c r="G48" s="42">
         <v>0</v>
       </c>
       <c r="H48" s="31">
@@ -4048,8 +4078,8 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="47">
+      <c r="K48" s="50"/>
+      <c r="L48" s="42">
         <v>0</v>
       </c>
       <c r="M48" s="31">
@@ -4057,8 +4087,8 @@
       </c>
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="47">
+      <c r="P48" s="50"/>
+      <c r="Q48" s="42">
         <v>0</v>
       </c>
       <c r="R48" s="31">
@@ -4066,24 +4096,24 @@
       </c>
       <c r="S48" s="31"/>
       <c r="T48" s="31"/>
-      <c r="U48" s="55"/>
+      <c r="U48" s="50"/>
     </row>
     <row r="49" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
         <v>8</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="68">
-        <v>0</v>
-      </c>
-      <c r="D49" s="68">
-        <v>0</v>
-      </c>
-      <c r="E49" s="68">
-        <v>0</v>
-      </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="47"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="61">
+        <v>0</v>
+      </c>
+      <c r="D49" s="61">
+        <v>0</v>
+      </c>
+      <c r="E49" s="61">
+        <v>0</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="31">
         <v>0</v>
       </c>
@@ -4093,8 +4123,8 @@
       <c r="J49" s="31">
         <v>0</v>
       </c>
-      <c r="K49" s="55"/>
-      <c r="L49" s="47"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="42"/>
       <c r="M49" s="31">
         <v>0</v>
       </c>
@@ -4104,8 +4134,8 @@
       <c r="O49" s="31">
         <v>0</v>
       </c>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="47"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="42"/>
       <c r="R49" s="31">
         <v>0</v>
       </c>
@@ -4115,22 +4145,22 @@
       <c r="T49" s="31">
         <v>0</v>
       </c>
-      <c r="U49" s="55"/>
+      <c r="U49" s="50"/>
     </row>
     <row r="50" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
         <v>9</v>
       </c>
-      <c r="B50" s="70">
-        <v>0</v>
-      </c>
-      <c r="C50" s="68">
-        <v>0</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="47">
+      <c r="B50" s="63">
+        <v>0</v>
+      </c>
+      <c r="C50" s="61">
+        <v>0</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="42">
         <v>0</v>
       </c>
       <c r="H50" s="31">
@@ -4138,8 +4168,8 @@
       </c>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="47">
+      <c r="K50" s="50"/>
+      <c r="L50" s="42">
         <v>0</v>
       </c>
       <c r="M50" s="31">
@@ -4147,8 +4177,8 @@
       </c>
       <c r="N50" s="31"/>
       <c r="O50" s="31"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="47">
+      <c r="P50" s="50"/>
+      <c r="Q50" s="42">
         <v>0</v>
       </c>
       <c r="R50" s="31">
@@ -4156,24 +4186,24 @@
       </c>
       <c r="S50" s="31"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="55"/>
+      <c r="U50" s="50"/>
     </row>
     <row r="51" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
         <v>10</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="68">
-        <v>0</v>
-      </c>
-      <c r="D51" s="68">
-        <v>0</v>
-      </c>
-      <c r="E51" s="68">
-        <v>0</v>
-      </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="47"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="61">
+        <v>0</v>
+      </c>
+      <c r="D51" s="61">
+        <v>0</v>
+      </c>
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
+      <c r="F51" s="50"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="31">
         <v>0</v>
       </c>
@@ -4183,8 +4213,8 @@
       <c r="J51" s="31">
         <v>0</v>
       </c>
-      <c r="K51" s="55"/>
-      <c r="L51" s="47"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="42"/>
       <c r="M51" s="31">
         <v>0</v>
       </c>
@@ -4194,8 +4224,8 @@
       <c r="O51" s="31">
         <v>0</v>
       </c>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="47"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="42"/>
       <c r="R51" s="31">
         <v>0</v>
       </c>
@@ -4205,22 +4235,22 @@
       <c r="T51" s="31">
         <v>0</v>
       </c>
-      <c r="U51" s="55"/>
+      <c r="U51" s="50"/>
     </row>
     <row r="52" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12">
         <v>11</v>
       </c>
-      <c r="B52" s="70">
-        <v>0</v>
-      </c>
-      <c r="C52" s="68">
-        <v>0</v>
-      </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="47">
+      <c r="B52" s="63">
+        <v>0</v>
+      </c>
+      <c r="C52" s="61">
+        <v>0</v>
+      </c>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="42">
         <v>0</v>
       </c>
       <c r="H52" s="31">
@@ -4228,8 +4258,8 @@
       </c>
       <c r="I52" s="31"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="47">
+      <c r="K52" s="50"/>
+      <c r="L52" s="42">
         <v>0</v>
       </c>
       <c r="M52" s="31">
@@ -4237,8 +4267,8 @@
       </c>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="47">
+      <c r="P52" s="50"/>
+      <c r="Q52" s="42">
         <v>0</v>
       </c>
       <c r="R52" s="31">
@@ -4246,24 +4276,24 @@
       </c>
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
-      <c r="U52" s="55"/>
+      <c r="U52" s="50"/>
     </row>
     <row r="53" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
         <v>12</v>
       </c>
-      <c r="B53" s="70">
-        <v>0</v>
-      </c>
-      <c r="C53" s="68">
-        <v>0</v>
-      </c>
-      <c r="D53" s="68">
-        <v>0</v>
-      </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="47">
+      <c r="B53" s="63">
+        <v>0</v>
+      </c>
+      <c r="C53" s="61">
+        <v>0</v>
+      </c>
+      <c r="D53" s="61">
+        <v>0</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="42">
         <v>0</v>
       </c>
       <c r="H53" s="31">
@@ -4273,8 +4303,8 @@
         <v>0</v>
       </c>
       <c r="J53" s="31"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="47">
+      <c r="K53" s="50"/>
+      <c r="L53" s="42">
         <v>0</v>
       </c>
       <c r="M53" s="31">
@@ -4284,8 +4314,8 @@
         <v>0</v>
       </c>
       <c r="O53" s="31"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="47">
+      <c r="P53" s="50"/>
+      <c r="Q53" s="42">
         <v>0</v>
       </c>
       <c r="R53" s="31">
@@ -4295,22 +4325,22 @@
         <v>0</v>
       </c>
       <c r="T53" s="31"/>
-      <c r="U53" s="55"/>
+      <c r="U53" s="50"/>
     </row>
     <row r="54" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12">
         <v>13</v>
       </c>
-      <c r="B54" s="70">
-        <v>0</v>
-      </c>
-      <c r="C54" s="68">
-        <v>0</v>
-      </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="47">
+      <c r="B54" s="63">
+        <v>0</v>
+      </c>
+      <c r="C54" s="61">
+        <v>0</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="42">
         <v>0</v>
       </c>
       <c r="H54" s="31">
@@ -4318,8 +4348,8 @@
       </c>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="47">
+      <c r="K54" s="50"/>
+      <c r="L54" s="42">
         <v>0</v>
       </c>
       <c r="M54" s="31">
@@ -4327,8 +4357,8 @@
       </c>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="47">
+      <c r="P54" s="50"/>
+      <c r="Q54" s="42">
         <v>0</v>
       </c>
       <c r="R54" s="31">
@@ -4336,24 +4366,27 @@
       </c>
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="55"/>
+      <c r="U54" s="50"/>
     </row>
     <row r="55" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12">
         <v>14</v>
       </c>
-      <c r="B55" s="70">
-        <v>-4992</v>
-      </c>
-      <c r="C55" s="68">
-        <v>5158</v>
-      </c>
-      <c r="D55" s="68">
-        <v>-167</v>
-      </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="47">
+      <c r="B55" s="63" cm="1">
+        <f t="array" ref="B55">BankRound((-4992)*0.5)</f>
+        <v>-2496</v>
+      </c>
+      <c r="C55" s="61" cm="1">
+        <f t="array" ref="C55">BankRound((5158)*0.5)</f>
+        <v>2579</v>
+      </c>
+      <c r="D55" s="61" cm="1">
+        <f t="array" ref="D55">BankRound((-167)*0.5)</f>
+        <v>-84</v>
+      </c>
+      <c r="E55" s="61"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="42">
         <v>0</v>
       </c>
       <c r="H55" s="31">
@@ -4363,8 +4396,8 @@
         <v>0</v>
       </c>
       <c r="J55" s="31"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="47">
+      <c r="K55" s="50"/>
+      <c r="L55" s="42">
         <v>0</v>
       </c>
       <c r="M55" s="31">
@@ -4374,8 +4407,8 @@
         <v>0</v>
       </c>
       <c r="O55" s="31"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="47">
+      <c r="P55" s="50"/>
+      <c r="Q55" s="42">
         <v>0</v>
       </c>
       <c r="R55" s="31">
@@ -4385,22 +4418,22 @@
         <v>0</v>
       </c>
       <c r="T55" s="31"/>
-      <c r="U55" s="55"/>
+      <c r="U55" s="50"/>
     </row>
     <row r="56" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
         <v>15</v>
       </c>
-      <c r="B56" s="70">
-        <v>0</v>
-      </c>
-      <c r="C56" s="68">
-        <v>0</v>
-      </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="47">
+      <c r="B56" s="63">
+        <v>0</v>
+      </c>
+      <c r="C56" s="61">
+        <v>0</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="42">
         <v>0</v>
       </c>
       <c r="H56" s="31">
@@ -4408,8 +4441,8 @@
       </c>
       <c r="I56" s="31"/>
       <c r="J56" s="31"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="47">
+      <c r="K56" s="50"/>
+      <c r="L56" s="42">
         <v>0</v>
       </c>
       <c r="M56" s="31">
@@ -4417,8 +4450,8 @@
       </c>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="47">
+      <c r="P56" s="50"/>
+      <c r="Q56" s="42">
         <v>0</v>
       </c>
       <c r="R56" s="31">
@@ -4426,22 +4459,22 @@
       </c>
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
-      <c r="U56" s="55"/>
+      <c r="U56" s="50"/>
     </row>
     <row r="57" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
         <v>16</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="68">
-        <v>0</v>
-      </c>
-      <c r="D57" s="68">
-        <v>0</v>
-      </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="47"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="61">
+        <v>0</v>
+      </c>
+      <c r="D57" s="61">
+        <v>0</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="31">
         <v>0</v>
       </c>
@@ -4449,8 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J57" s="31"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="47"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="42"/>
       <c r="M57" s="31">
         <v>0</v>
       </c>
@@ -4458,8 +4491,8 @@
         <v>0</v>
       </c>
       <c r="O57" s="31"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="47"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="42"/>
       <c r="R57" s="31">
         <v>0</v>
       </c>
@@ -4467,22 +4500,22 @@
         <v>0</v>
       </c>
       <c r="T57" s="31"/>
-      <c r="U57" s="55"/>
+      <c r="U57" s="50"/>
     </row>
     <row r="58" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
         <v>17</v>
       </c>
-      <c r="B58" s="70">
-        <v>0</v>
-      </c>
-      <c r="C58" s="68">
-        <v>0</v>
-      </c>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="47">
+      <c r="B58" s="63">
+        <v>0</v>
+      </c>
+      <c r="C58" s="61">
+        <v>0</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="42">
         <v>0</v>
       </c>
       <c r="H58" s="31">
@@ -4490,8 +4523,8 @@
       </c>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="47">
+      <c r="K58" s="50"/>
+      <c r="L58" s="42">
         <v>0</v>
       </c>
       <c r="M58" s="31">
@@ -4499,8 +4532,8 @@
       </c>
       <c r="N58" s="31"/>
       <c r="O58" s="31"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="47">
+      <c r="P58" s="50"/>
+      <c r="Q58" s="42">
         <v>0</v>
       </c>
       <c r="R58" s="31">
@@ -4508,22 +4541,22 @@
       </c>
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
-      <c r="U58" s="55"/>
+      <c r="U58" s="50"/>
     </row>
     <row r="59" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
         <v>18</v>
       </c>
-      <c r="B59" s="70">
-        <v>0</v>
-      </c>
-      <c r="C59" s="68">
-        <v>0</v>
-      </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="47">
+      <c r="B59" s="63">
+        <v>0</v>
+      </c>
+      <c r="C59" s="61">
+        <v>0</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="42">
         <v>0</v>
       </c>
       <c r="H59" s="31">
@@ -4531,8 +4564,8 @@
       </c>
       <c r="I59" s="31"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="47">
+      <c r="K59" s="50"/>
+      <c r="L59" s="42">
         <v>0</v>
       </c>
       <c r="M59" s="31">
@@ -4540,8 +4573,8 @@
       </c>
       <c r="N59" s="31"/>
       <c r="O59" s="31"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="47">
+      <c r="P59" s="50"/>
+      <c r="Q59" s="42">
         <v>0</v>
       </c>
       <c r="R59" s="31">
@@ -4549,22 +4582,22 @@
       </c>
       <c r="S59" s="31"/>
       <c r="T59" s="31"/>
-      <c r="U59" s="55"/>
+      <c r="U59" s="50"/>
     </row>
     <row r="60" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12">
         <v>19</v>
       </c>
-      <c r="B60" s="70">
-        <v>0</v>
-      </c>
-      <c r="C60" s="68">
-        <v>0</v>
-      </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="47">
+      <c r="B60" s="63">
+        <v>0</v>
+      </c>
+      <c r="C60" s="61">
+        <v>0</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="42">
         <v>0</v>
       </c>
       <c r="H60" s="31">
@@ -4572,8 +4605,8 @@
       </c>
       <c r="I60" s="31"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="47">
+      <c r="K60" s="50"/>
+      <c r="L60" s="42">
         <v>0</v>
       </c>
       <c r="M60" s="31">
@@ -4581,8 +4614,8 @@
       </c>
       <c r="N60" s="31"/>
       <c r="O60" s="31"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="47">
+      <c r="P60" s="50"/>
+      <c r="Q60" s="42">
         <v>0</v>
       </c>
       <c r="R60" s="31">
@@ -4590,7 +4623,7 @@
       </c>
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
-      <c r="U60" s="55"/>
+      <c r="U60" s="50"/>
     </row>
     <row r="61" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12">
@@ -4604,8 +4637,8 @@
         <v>0</v>
       </c>
       <c r="E61" s="31"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="47"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="31">
         <v>0</v>
       </c>
@@ -4613,8 +4646,8 @@
         <v>0</v>
       </c>
       <c r="J61" s="31"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="47"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="42"/>
       <c r="M61" s="31">
         <v>0</v>
       </c>
@@ -4622,8 +4655,8 @@
         <v>0</v>
       </c>
       <c r="O61" s="31"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="47"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="42"/>
       <c r="R61" s="31">
         <v>0</v>
       </c>
@@ -4631,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="31"/>
-      <c r="U61" s="55"/>
+      <c r="U61" s="50"/>
     </row>
     <row r="62" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
@@ -4645,8 +4678,8 @@
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="47">
+      <c r="F62" s="50"/>
+      <c r="G62" s="42">
         <v>0</v>
       </c>
       <c r="H62" s="31">
@@ -4654,8 +4687,8 @@
       </c>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="47">
+      <c r="K62" s="50"/>
+      <c r="L62" s="42">
         <v>0</v>
       </c>
       <c r="M62" s="31">
@@ -4663,8 +4696,8 @@
       </c>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="47">
+      <c r="P62" s="50"/>
+      <c r="Q62" s="42">
         <v>0</v>
       </c>
       <c r="R62" s="31">
@@ -4672,7 +4705,7 @@
       </c>
       <c r="S62" s="31"/>
       <c r="T62" s="31"/>
-      <c r="U62" s="55"/>
+      <c r="U62" s="50"/>
     </row>
     <row r="63" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
@@ -4686,8 +4719,8 @@
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="47">
+      <c r="F63" s="50"/>
+      <c r="G63" s="42">
         <v>0</v>
       </c>
       <c r="H63" s="31">
@@ -4695,8 +4728,8 @@
       </c>
       <c r="I63" s="31"/>
       <c r="J63" s="31"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="47">
+      <c r="K63" s="50"/>
+      <c r="L63" s="42">
         <v>0</v>
       </c>
       <c r="M63" s="31">
@@ -4704,8 +4737,8 @@
       </c>
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="47">
+      <c r="P63" s="50"/>
+      <c r="Q63" s="42">
         <v>0</v>
       </c>
       <c r="R63" s="31">
@@ -4713,7 +4746,7 @@
       </c>
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
-      <c r="U63" s="55"/>
+      <c r="U63" s="50"/>
     </row>
     <row r="64" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12">
@@ -4727,8 +4760,8 @@
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="47">
+      <c r="F64" s="50"/>
+      <c r="G64" s="42">
         <v>0</v>
       </c>
       <c r="H64" s="31">
@@ -4736,8 +4769,8 @@
       </c>
       <c r="I64" s="31"/>
       <c r="J64" s="31"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="47">
+      <c r="K64" s="50"/>
+      <c r="L64" s="42">
         <v>0</v>
       </c>
       <c r="M64" s="31">
@@ -4745,8 +4778,8 @@
       </c>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="47">
+      <c r="P64" s="50"/>
+      <c r="Q64" s="42">
         <v>0</v>
       </c>
       <c r="R64" s="31">
@@ -4754,7 +4787,7 @@
       </c>
       <c r="S64" s="31"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="55"/>
+      <c r="U64" s="50"/>
     </row>
     <row r="65" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -4768,8 +4801,8 @@
         <v>0</v>
       </c>
       <c r="E65" s="31"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="47"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="31">
         <v>0</v>
       </c>
@@ -4777,8 +4810,8 @@
         <v>0</v>
       </c>
       <c r="J65" s="31"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="47"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="42"/>
       <c r="M65" s="31">
         <v>0</v>
       </c>
@@ -4786,8 +4819,8 @@
         <v>0</v>
       </c>
       <c r="O65" s="31"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="47"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="42"/>
       <c r="R65" s="31">
         <v>0</v>
       </c>
@@ -4795,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="31"/>
-      <c r="U65" s="55"/>
+      <c r="U65" s="50"/>
     </row>
     <row r="66" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -4809,8 +4842,8 @@
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="47">
+      <c r="F66" s="50"/>
+      <c r="G66" s="42">
         <v>0</v>
       </c>
       <c r="H66" s="31">
@@ -4818,8 +4851,8 @@
       </c>
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="47">
+      <c r="K66" s="50"/>
+      <c r="L66" s="42">
         <v>0</v>
       </c>
       <c r="M66" s="31">
@@ -4827,8 +4860,8 @@
       </c>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="47">
+      <c r="P66" s="50"/>
+      <c r="Q66" s="42">
         <v>0</v>
       </c>
       <c r="R66" s="31">
@@ -4836,7 +4869,7 @@
       </c>
       <c r="S66" s="31"/>
       <c r="T66" s="31"/>
-      <c r="U66" s="55"/>
+      <c r="U66" s="50"/>
     </row>
     <row r="67" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -4850,8 +4883,8 @@
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="47">
+      <c r="F67" s="50"/>
+      <c r="G67" s="42">
         <v>0</v>
       </c>
       <c r="H67" s="31">
@@ -4859,8 +4892,8 @@
       </c>
       <c r="I67" s="31"/>
       <c r="J67" s="31"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="47">
+      <c r="K67" s="50"/>
+      <c r="L67" s="42">
         <v>0</v>
       </c>
       <c r="M67" s="31">
@@ -4868,8 +4901,8 @@
       </c>
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="47">
+      <c r="P67" s="50"/>
+      <c r="Q67" s="42">
         <v>0</v>
       </c>
       <c r="R67" s="31">
@@ -4877,7 +4910,7 @@
       </c>
       <c r="S67" s="31"/>
       <c r="T67" s="31"/>
-      <c r="U67" s="55"/>
+      <c r="U67" s="50"/>
     </row>
     <row r="68" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
@@ -4891,8 +4924,8 @@
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="48">
+      <c r="F68" s="51"/>
+      <c r="G68" s="43">
         <v>0</v>
       </c>
       <c r="H68" s="34">
@@ -4900,8 +4933,8 @@
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="48">
+      <c r="K68" s="51"/>
+      <c r="L68" s="43">
         <v>0</v>
       </c>
       <c r="M68" s="34">
@@ -4909,8 +4942,8 @@
       </c>
       <c r="N68" s="34"/>
       <c r="O68" s="34"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="48">
+      <c r="P68" s="51"/>
+      <c r="Q68" s="43">
         <v>0</v>
       </c>
       <c r="R68" s="34">
@@ -4918,7 +4951,7 @@
       </c>
       <c r="S68" s="34"/>
       <c r="T68" s="34"/>
-      <c r="U68" s="56"/>
+      <c r="U68" s="51"/>
     </row>
     <row r="69" spans="1:21" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="22">
@@ -4932,8 +4965,8 @@
         <v>0</v>
       </c>
       <c r="E69" s="23"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="37">
         <v>0</v>
       </c>
@@ -4941,8 +4974,8 @@
         <v>0</v>
       </c>
       <c r="J69" s="23"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="44"/>
       <c r="M69" s="37">
         <v>0</v>
       </c>
@@ -4950,8 +4983,8 @@
         <v>0</v>
       </c>
       <c r="O69" s="23"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="44"/>
       <c r="R69" s="37">
         <v>0</v>
       </c>
@@ -4959,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="23"/>
-      <c r="U69" s="54"/>
+      <c r="U69" s="49"/>
     </row>
     <row r="70" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -4973,8 +5006,8 @@
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="47">
+      <c r="F70" s="50"/>
+      <c r="G70" s="42">
         <v>0</v>
       </c>
       <c r="H70" s="31">
@@ -4982,8 +5015,8 @@
       </c>
       <c r="I70" s="31"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="47">
+      <c r="K70" s="50"/>
+      <c r="L70" s="42">
         <v>0</v>
       </c>
       <c r="M70" s="31">
@@ -4991,8 +5024,8 @@
       </c>
       <c r="N70" s="31"/>
       <c r="O70" s="14"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="47">
+      <c r="P70" s="50"/>
+      <c r="Q70" s="42">
         <v>0</v>
       </c>
       <c r="R70" s="31">
@@ -5000,7 +5033,7 @@
       </c>
       <c r="S70" s="31"/>
       <c r="T70" s="14"/>
-      <c r="U70" s="55"/>
+      <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -5014,8 +5047,8 @@
         <v>0</v>
       </c>
       <c r="E71" s="14"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="47"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="42"/>
       <c r="H71" s="31">
         <v>0</v>
       </c>
@@ -5023,8 +5056,8 @@
         <v>0</v>
       </c>
       <c r="J71" s="14"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="47"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="42"/>
       <c r="M71" s="31">
         <v>0</v>
       </c>
@@ -5032,8 +5065,8 @@
         <v>0</v>
       </c>
       <c r="O71" s="14"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="47"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="42"/>
       <c r="R71" s="31">
         <v>0</v>
       </c>
@@ -5041,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="14"/>
-      <c r="U71" s="55"/>
+      <c r="U71" s="50"/>
     </row>
     <row r="72" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="12">
@@ -5055,8 +5088,8 @@
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="47">
+      <c r="F72" s="50"/>
+      <c r="G72" s="42">
         <v>0</v>
       </c>
       <c r="H72" s="31">
@@ -5064,8 +5097,8 @@
       </c>
       <c r="I72" s="31"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="47">
+      <c r="K72" s="50"/>
+      <c r="L72" s="42">
         <v>0</v>
       </c>
       <c r="M72" s="31">
@@ -5073,8 +5106,8 @@
       </c>
       <c r="N72" s="31"/>
       <c r="O72" s="14"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="47">
+      <c r="P72" s="50"/>
+      <c r="Q72" s="42">
         <v>0</v>
       </c>
       <c r="R72" s="31">
@@ -5082,7 +5115,7 @@
       </c>
       <c r="S72" s="31"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="55"/>
+      <c r="U72" s="50"/>
     </row>
     <row r="73" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -5096,8 +5129,8 @@
         <v>0</v>
       </c>
       <c r="E73" s="14"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="47"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="31">
         <v>0</v>
       </c>
@@ -5105,8 +5138,8 @@
         <v>0</v>
       </c>
       <c r="J73" s="14"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="47"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="42"/>
       <c r="M73" s="31">
         <v>0</v>
       </c>
@@ -5114,8 +5147,8 @@
         <v>0</v>
       </c>
       <c r="O73" s="14"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="47"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="42"/>
       <c r="R73" s="31">
         <v>0</v>
       </c>
@@ -5123,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="14"/>
-      <c r="U73" s="55"/>
+      <c r="U73" s="50"/>
     </row>
     <row r="74" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -5137,8 +5170,8 @@
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="47">
+      <c r="F74" s="50"/>
+      <c r="G74" s="42">
         <v>0</v>
       </c>
       <c r="H74" s="31">
@@ -5146,8 +5179,8 @@
       </c>
       <c r="I74" s="31"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="47">
+      <c r="K74" s="50"/>
+      <c r="L74" s="42">
         <v>0</v>
       </c>
       <c r="M74" s="31">
@@ -5155,8 +5188,8 @@
       </c>
       <c r="N74" s="31"/>
       <c r="O74" s="14"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="47">
+      <c r="P74" s="50"/>
+      <c r="Q74" s="42">
         <v>0</v>
       </c>
       <c r="R74" s="31">
@@ -5164,7 +5197,7 @@
       </c>
       <c r="S74" s="31"/>
       <c r="T74" s="14"/>
-      <c r="U74" s="55"/>
+      <c r="U74" s="50"/>
     </row>
     <row r="75" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -5178,8 +5211,8 @@
         <v>0</v>
       </c>
       <c r="E75" s="14"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="47"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="42"/>
       <c r="H75" s="31">
         <v>0</v>
       </c>
@@ -5187,8 +5220,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="14"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="47"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="42"/>
       <c r="M75" s="31">
         <v>0</v>
       </c>
@@ -5196,8 +5229,8 @@
         <v>0</v>
       </c>
       <c r="O75" s="14"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="47"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="42"/>
       <c r="R75" s="31">
         <v>0</v>
       </c>
@@ -5205,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="T75" s="14"/>
-      <c r="U75" s="55"/>
+      <c r="U75" s="50"/>
     </row>
     <row r="76" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="12">
@@ -5219,8 +5252,8 @@
       </c>
       <c r="D76" s="31"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="47">
+      <c r="F76" s="50"/>
+      <c r="G76" s="42">
         <v>0</v>
       </c>
       <c r="H76" s="31">
@@ -5228,8 +5261,8 @@
       </c>
       <c r="I76" s="31"/>
       <c r="J76" s="14"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="47">
+      <c r="K76" s="50"/>
+      <c r="L76" s="42">
         <v>0</v>
       </c>
       <c r="M76" s="31">
@@ -5237,8 +5270,8 @@
       </c>
       <c r="N76" s="31"/>
       <c r="O76" s="14"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="47">
+      <c r="P76" s="50"/>
+      <c r="Q76" s="42">
         <v>0</v>
       </c>
       <c r="R76" s="31">
@@ -5246,7 +5279,7 @@
       </c>
       <c r="S76" s="31"/>
       <c r="T76" s="14"/>
-      <c r="U76" s="55"/>
+      <c r="U76" s="50"/>
     </row>
     <row r="77" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -5260,8 +5293,8 @@
         <v>0</v>
       </c>
       <c r="E77" s="14"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="47"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="42"/>
       <c r="H77" s="31">
         <v>0</v>
       </c>
@@ -5269,8 +5302,8 @@
         <v>0</v>
       </c>
       <c r="J77" s="14"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="47"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="42"/>
       <c r="M77" s="31">
         <v>0</v>
       </c>
@@ -5278,8 +5311,8 @@
         <v>0</v>
       </c>
       <c r="O77" s="14"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="47"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="42"/>
       <c r="R77" s="31">
         <v>0</v>
       </c>
@@ -5287,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="14"/>
-      <c r="U77" s="55"/>
+      <c r="U77" s="50"/>
     </row>
     <row r="78" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -5301,8 +5334,8 @@
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="47">
+      <c r="F78" s="50"/>
+      <c r="G78" s="42">
         <v>0</v>
       </c>
       <c r="H78" s="31">
@@ -5310,8 +5343,8 @@
       </c>
       <c r="I78" s="31"/>
       <c r="J78" s="14"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="47">
+      <c r="K78" s="50"/>
+      <c r="L78" s="42">
         <v>0</v>
       </c>
       <c r="M78" s="31">
@@ -5319,8 +5352,8 @@
       </c>
       <c r="N78" s="31"/>
       <c r="O78" s="14"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="47">
+      <c r="P78" s="50"/>
+      <c r="Q78" s="42">
         <v>0</v>
       </c>
       <c r="R78" s="31">
@@ -5328,7 +5361,7 @@
       </c>
       <c r="S78" s="31"/>
       <c r="T78" s="14"/>
-      <c r="U78" s="55"/>
+      <c r="U78" s="50"/>
     </row>
     <row r="79" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="12">
@@ -5342,8 +5375,8 @@
         <v>0</v>
       </c>
       <c r="E79" s="14"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="47"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="31">
         <v>0</v>
       </c>
@@ -5351,8 +5384,8 @@
         <v>0</v>
       </c>
       <c r="J79" s="14"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="47"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="42"/>
       <c r="M79" s="31">
         <v>0</v>
       </c>
@@ -5360,8 +5393,8 @@
         <v>0</v>
       </c>
       <c r="O79" s="14"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="47"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="42"/>
       <c r="R79" s="31">
         <v>0</v>
       </c>
@@ -5369,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="14"/>
-      <c r="U79" s="55"/>
+      <c r="U79" s="50"/>
     </row>
     <row r="80" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="12">
@@ -5383,8 +5416,8 @@
       </c>
       <c r="D80" s="31"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="47">
+      <c r="F80" s="50"/>
+      <c r="G80" s="42">
         <v>0</v>
       </c>
       <c r="H80" s="31">
@@ -5392,8 +5425,8 @@
       </c>
       <c r="I80" s="31"/>
       <c r="J80" s="14"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="47">
+      <c r="K80" s="50"/>
+      <c r="L80" s="42">
         <v>0</v>
       </c>
       <c r="M80" s="31">
@@ -5401,8 +5434,8 @@
       </c>
       <c r="N80" s="31"/>
       <c r="O80" s="14"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="47">
+      <c r="P80" s="50"/>
+      <c r="Q80" s="42">
         <v>0</v>
       </c>
       <c r="R80" s="31">
@@ -5410,7 +5443,7 @@
       </c>
       <c r="S80" s="31"/>
       <c r="T80" s="14"/>
-      <c r="U80" s="55"/>
+      <c r="U80" s="50"/>
     </row>
     <row r="81" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="12">
@@ -5424,8 +5457,8 @@
         <v>0</v>
       </c>
       <c r="E81" s="14"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="47"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="31">
         <v>0</v>
       </c>
@@ -5433,8 +5466,8 @@
         <v>0</v>
       </c>
       <c r="J81" s="14"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="47"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="42"/>
       <c r="M81" s="31">
         <v>0</v>
       </c>
@@ -5442,8 +5475,8 @@
         <v>0</v>
       </c>
       <c r="O81" s="14"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="47"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="42"/>
       <c r="R81" s="31">
         <v>0</v>
       </c>
@@ -5451,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="14"/>
-      <c r="U81" s="55"/>
+      <c r="U81" s="50"/>
     </row>
     <row r="82" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="12">
@@ -5465,8 +5498,8 @@
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="47">
+      <c r="F82" s="50"/>
+      <c r="G82" s="42">
         <v>0</v>
       </c>
       <c r="H82" s="31">
@@ -5474,8 +5507,8 @@
       </c>
       <c r="I82" s="31"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="47">
+      <c r="K82" s="50"/>
+      <c r="L82" s="42">
         <v>0</v>
       </c>
       <c r="M82" s="31">
@@ -5483,8 +5516,8 @@
       </c>
       <c r="N82" s="31"/>
       <c r="O82" s="14"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="47">
+      <c r="P82" s="50"/>
+      <c r="Q82" s="42">
         <v>0</v>
       </c>
       <c r="R82" s="31">
@@ -5492,7 +5525,7 @@
       </c>
       <c r="S82" s="31"/>
       <c r="T82" s="14"/>
-      <c r="U82" s="55"/>
+      <c r="U82" s="50"/>
     </row>
     <row r="83" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -5506,8 +5539,8 @@
         <v>0</v>
       </c>
       <c r="E83" s="14"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="47"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="31">
         <v>0</v>
       </c>
@@ -5515,8 +5548,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="14"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="47"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="42"/>
       <c r="M83" s="31">
         <v>0</v>
       </c>
@@ -5524,8 +5557,8 @@
         <v>0</v>
       </c>
       <c r="O83" s="14"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="47"/>
+      <c r="P83" s="50"/>
+      <c r="Q83" s="42"/>
       <c r="R83" s="31">
         <v>0</v>
       </c>
@@ -5533,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="14"/>
-      <c r="U83" s="55"/>
+      <c r="U83" s="50"/>
     </row>
     <row r="84" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -5547,8 +5580,8 @@
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="47">
+      <c r="F84" s="50"/>
+      <c r="G84" s="42">
         <v>0</v>
       </c>
       <c r="H84" s="31">
@@ -5556,8 +5589,8 @@
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="14"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="47">
+      <c r="K84" s="50"/>
+      <c r="L84" s="42">
         <v>0</v>
       </c>
       <c r="M84" s="31">
@@ -5565,8 +5598,8 @@
       </c>
       <c r="N84" s="31"/>
       <c r="O84" s="14"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="47">
+      <c r="P84" s="50"/>
+      <c r="Q84" s="42">
         <v>0</v>
       </c>
       <c r="R84" s="31">
@@ -5574,7 +5607,7 @@
       </c>
       <c r="S84" s="31"/>
       <c r="T84" s="14"/>
-      <c r="U84" s="55"/>
+      <c r="U84" s="50"/>
     </row>
     <row r="85" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -5588,8 +5621,8 @@
         <v>0</v>
       </c>
       <c r="E85" s="14"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="47"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="31">
         <v>0</v>
       </c>
@@ -5597,8 +5630,8 @@
         <v>0</v>
       </c>
       <c r="J85" s="14"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="47"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="42"/>
       <c r="M85" s="31">
         <v>0</v>
       </c>
@@ -5606,8 +5639,8 @@
         <v>0</v>
       </c>
       <c r="O85" s="14"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="47"/>
+      <c r="P85" s="50"/>
+      <c r="Q85" s="42"/>
       <c r="R85" s="31">
         <v>0</v>
       </c>
@@ -5615,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="T85" s="14"/>
-      <c r="U85" s="55"/>
+      <c r="U85" s="50"/>
     </row>
     <row r="86" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
         <v>17</v>
       </c>
-      <c r="B86" s="70">
-        <v>0</v>
-      </c>
-      <c r="C86" s="68">
-        <v>0</v>
-      </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="47">
+      <c r="B86" s="63">
+        <v>0</v>
+      </c>
+      <c r="C86" s="61">
+        <v>0</v>
+      </c>
+      <c r="D86" s="61"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="42">
         <v>0</v>
       </c>
       <c r="H86" s="31">
@@ -5638,8 +5671,8 @@
       </c>
       <c r="I86" s="31"/>
       <c r="J86" s="14"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="47">
+      <c r="K86" s="50"/>
+      <c r="L86" s="42">
         <v>0</v>
       </c>
       <c r="M86" s="31">
@@ -5647,8 +5680,8 @@
       </c>
       <c r="N86" s="31"/>
       <c r="O86" s="14"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="47">
+      <c r="P86" s="50"/>
+      <c r="Q86" s="42">
         <v>0</v>
       </c>
       <c r="R86" s="31">
@@ -5656,22 +5689,22 @@
       </c>
       <c r="S86" s="31"/>
       <c r="T86" s="14"/>
-      <c r="U86" s="55"/>
+      <c r="U86" s="50"/>
     </row>
     <row r="87" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
         <v>18</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="68">
-        <v>0</v>
-      </c>
-      <c r="D87" s="68">
-        <v>0</v>
-      </c>
-      <c r="E87" s="69"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="47"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="61">
+        <v>0</v>
+      </c>
+      <c r="D87" s="61">
+        <v>0</v>
+      </c>
+      <c r="E87" s="62"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="31">
         <v>0</v>
       </c>
@@ -5679,8 +5712,8 @@
         <v>0</v>
       </c>
       <c r="J87" s="14"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="47"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="42"/>
       <c r="M87" s="31">
         <v>0</v>
       </c>
@@ -5688,8 +5721,8 @@
         <v>0</v>
       </c>
       <c r="O87" s="14"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="47"/>
+      <c r="P87" s="50"/>
+      <c r="Q87" s="42"/>
       <c r="R87" s="31">
         <v>0</v>
       </c>
@@ -5697,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="T87" s="14"/>
-      <c r="U87" s="55"/>
+      <c r="U87" s="50"/>
     </row>
     <row r="88" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
         <v>19</v>
       </c>
-      <c r="B88" s="70">
-        <v>0</v>
-      </c>
-      <c r="C88" s="68">
-        <v>0</v>
-      </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="47">
+      <c r="B88" s="63">
+        <v>0</v>
+      </c>
+      <c r="C88" s="61">
+        <v>0</v>
+      </c>
+      <c r="D88" s="61"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="42">
         <v>0</v>
       </c>
       <c r="H88" s="31">
@@ -5720,8 +5753,8 @@
       </c>
       <c r="I88" s="31"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="47">
+      <c r="K88" s="50"/>
+      <c r="L88" s="42">
         <v>0</v>
       </c>
       <c r="M88" s="31">
@@ -5729,8 +5762,8 @@
       </c>
       <c r="N88" s="31"/>
       <c r="O88" s="14"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="47">
+      <c r="P88" s="50"/>
+      <c r="Q88" s="42">
         <v>0</v>
       </c>
       <c r="R88" s="31">
@@ -5738,22 +5771,22 @@
       </c>
       <c r="S88" s="31"/>
       <c r="T88" s="14"/>
-      <c r="U88" s="55"/>
+      <c r="U88" s="50"/>
     </row>
     <row r="89" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
         <v>20</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="68">
-        <v>0</v>
-      </c>
-      <c r="D89" s="68">
-        <v>0</v>
-      </c>
-      <c r="E89" s="69"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="47"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="61">
+        <v>0</v>
+      </c>
+      <c r="D89" s="61">
+        <v>0</v>
+      </c>
+      <c r="E89" s="62"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="31">
         <v>0</v>
       </c>
@@ -5761,8 +5794,8 @@
         <v>0</v>
       </c>
       <c r="J89" s="14"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="47"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="42"/>
       <c r="M89" s="31">
         <v>0</v>
       </c>
@@ -5770,8 +5803,8 @@
         <v>0</v>
       </c>
       <c r="O89" s="14"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="47"/>
+      <c r="P89" s="50"/>
+      <c r="Q89" s="42"/>
       <c r="R89" s="31">
         <v>0</v>
       </c>
@@ -5779,22 +5812,24 @@
         <v>0</v>
       </c>
       <c r="T89" s="14"/>
-      <c r="U89" s="55"/>
+      <c r="U89" s="50"/>
     </row>
     <row r="90" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
         <v>21</v>
       </c>
-      <c r="B90" s="70">
-        <v>-5325</v>
-      </c>
-      <c r="C90" s="68">
-        <v>5325</v>
-      </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="47">
+      <c r="B90" s="63" cm="1">
+        <f t="array" ref="B90">BankRound((-5325)*0.5)</f>
+        <v>-2662</v>
+      </c>
+      <c r="C90" s="61" cm="1">
+        <f t="array" ref="C90">BankRound((5325)*0.5)</f>
+        <v>2662</v>
+      </c>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="42">
         <v>0</v>
       </c>
       <c r="H90" s="31">
@@ -5802,8 +5837,8 @@
       </c>
       <c r="I90" s="31"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="47">
+      <c r="K90" s="50"/>
+      <c r="L90" s="42">
         <v>0</v>
       </c>
       <c r="M90" s="31">
@@ -5811,8 +5846,8 @@
       </c>
       <c r="N90" s="31"/>
       <c r="O90" s="14"/>
-      <c r="P90" s="55"/>
-      <c r="Q90" s="47">
+      <c r="P90" s="50"/>
+      <c r="Q90" s="42">
         <v>0</v>
       </c>
       <c r="R90" s="31">
@@ -5820,22 +5855,22 @@
       </c>
       <c r="S90" s="31"/>
       <c r="T90" s="14"/>
-      <c r="U90" s="55"/>
+      <c r="U90" s="50"/>
     </row>
     <row r="91" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
         <v>22</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="68">
-        <v>0</v>
-      </c>
-      <c r="D91" s="68">
-        <v>0</v>
-      </c>
-      <c r="E91" s="69"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="47"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="61">
+        <v>0</v>
+      </c>
+      <c r="D91" s="61">
+        <v>0</v>
+      </c>
+      <c r="E91" s="62"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="42"/>
       <c r="H91" s="31">
         <v>0</v>
       </c>
@@ -5843,8 +5878,8 @@
         <v>0</v>
       </c>
       <c r="J91" s="14"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="47"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="42"/>
       <c r="M91" s="31">
         <v>0</v>
       </c>
@@ -5852,8 +5887,8 @@
         <v>0</v>
       </c>
       <c r="O91" s="14"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="47"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="42"/>
       <c r="R91" s="31">
         <v>0</v>
       </c>
@@ -5861,22 +5896,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="14"/>
-      <c r="U91" s="55"/>
+      <c r="U91" s="50"/>
     </row>
     <row r="92" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
         <v>23</v>
       </c>
-      <c r="B92" s="70">
-        <v>0</v>
-      </c>
-      <c r="C92" s="68">
-        <v>0</v>
-      </c>
-      <c r="D92" s="68"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="47">
+      <c r="B92" s="63">
+        <v>0</v>
+      </c>
+      <c r="C92" s="61">
+        <v>0</v>
+      </c>
+      <c r="D92" s="61"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="42">
         <v>0</v>
       </c>
       <c r="H92" s="31">
@@ -5884,8 +5919,8 @@
       </c>
       <c r="I92" s="31"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="47">
+      <c r="K92" s="50"/>
+      <c r="L92" s="42">
         <v>0</v>
       </c>
       <c r="M92" s="31">
@@ -5893,8 +5928,8 @@
       </c>
       <c r="N92" s="31"/>
       <c r="O92" s="14"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="47">
+      <c r="P92" s="50"/>
+      <c r="Q92" s="42">
         <v>0</v>
       </c>
       <c r="R92" s="31">
@@ -5902,22 +5937,22 @@
       </c>
       <c r="S92" s="31"/>
       <c r="T92" s="14"/>
-      <c r="U92" s="55"/>
+      <c r="U92" s="50"/>
     </row>
     <row r="93" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
         <v>24</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="68">
-        <v>0</v>
-      </c>
-      <c r="D93" s="68">
-        <v>0</v>
-      </c>
-      <c r="E93" s="69"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="47"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="61">
+        <v>0</v>
+      </c>
+      <c r="D93" s="61">
+        <v>0</v>
+      </c>
+      <c r="E93" s="62"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="31">
         <v>0</v>
       </c>
@@ -5925,8 +5960,8 @@
         <v>0</v>
       </c>
       <c r="J93" s="14"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="47"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="42"/>
       <c r="M93" s="31">
         <v>0</v>
       </c>
@@ -5934,8 +5969,8 @@
         <v>0</v>
       </c>
       <c r="O93" s="14"/>
-      <c r="P93" s="55"/>
-      <c r="Q93" s="47"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="42"/>
       <c r="R93" s="31">
         <v>0</v>
       </c>
@@ -5943,22 +5978,22 @@
         <v>0</v>
       </c>
       <c r="T93" s="14"/>
-      <c r="U93" s="55"/>
+      <c r="U93" s="50"/>
     </row>
     <row r="94" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
         <v>25</v>
       </c>
-      <c r="B94" s="70">
-        <v>0</v>
-      </c>
-      <c r="C94" s="68">
-        <v>0</v>
-      </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="47">
+      <c r="B94" s="63">
+        <v>0</v>
+      </c>
+      <c r="C94" s="61">
+        <v>0</v>
+      </c>
+      <c r="D94" s="61"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="42">
         <v>0</v>
       </c>
       <c r="H94" s="31">
@@ -5966,8 +6001,8 @@
       </c>
       <c r="I94" s="31"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="47">
+      <c r="K94" s="50"/>
+      <c r="L94" s="42">
         <v>0</v>
       </c>
       <c r="M94" s="31">
@@ -5975,8 +6010,8 @@
       </c>
       <c r="N94" s="31"/>
       <c r="O94" s="14"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="47">
+      <c r="P94" s="50"/>
+      <c r="Q94" s="42">
         <v>0</v>
       </c>
       <c r="R94" s="31">
@@ -5984,22 +6019,22 @@
       </c>
       <c r="S94" s="31"/>
       <c r="T94" s="14"/>
-      <c r="U94" s="55"/>
+      <c r="U94" s="50"/>
     </row>
     <row r="95" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="12">
         <v>26</v>
       </c>
-      <c r="B95" s="70">
-        <v>0</v>
-      </c>
-      <c r="C95" s="68">
-        <v>0</v>
-      </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="47">
+      <c r="B95" s="63">
+        <v>0</v>
+      </c>
+      <c r="C95" s="61">
+        <v>0</v>
+      </c>
+      <c r="D95" s="61"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="42">
         <v>0</v>
       </c>
       <c r="H95" s="31">
@@ -6007,8 +6042,8 @@
       </c>
       <c r="I95" s="31"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="47">
+      <c r="K95" s="50"/>
+      <c r="L95" s="42">
         <v>0</v>
       </c>
       <c r="M95" s="31">
@@ -6016,8 +6051,8 @@
       </c>
       <c r="N95" s="31"/>
       <c r="O95" s="14"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="47">
+      <c r="P95" s="50"/>
+      <c r="Q95" s="42">
         <v>0</v>
       </c>
       <c r="R95" s="31">
@@ -6025,22 +6060,22 @@
       </c>
       <c r="S95" s="31"/>
       <c r="T95" s="14"/>
-      <c r="U95" s="55"/>
+      <c r="U95" s="50"/>
     </row>
     <row r="96" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="12">
         <v>27</v>
       </c>
-      <c r="B96" s="70">
-        <v>0</v>
-      </c>
-      <c r="C96" s="68">
-        <v>0</v>
-      </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="47">
+      <c r="B96" s="63">
+        <v>0</v>
+      </c>
+      <c r="C96" s="61">
+        <v>0</v>
+      </c>
+      <c r="D96" s="61"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="42">
         <v>0</v>
       </c>
       <c r="H96" s="31">
@@ -6048,8 +6083,8 @@
       </c>
       <c r="I96" s="31"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="47">
+      <c r="K96" s="50"/>
+      <c r="L96" s="42">
         <v>0</v>
       </c>
       <c r="M96" s="31">
@@ -6057,8 +6092,8 @@
       </c>
       <c r="N96" s="31"/>
       <c r="O96" s="14"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="47">
+      <c r="P96" s="50"/>
+      <c r="Q96" s="42">
         <v>0</v>
       </c>
       <c r="R96" s="31">
@@ -6066,7 +6101,7 @@
       </c>
       <c r="S96" s="31"/>
       <c r="T96" s="14"/>
-      <c r="U96" s="55"/>
+      <c r="U96" s="50"/>
     </row>
     <row r="97" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="12">
@@ -6080,8 +6115,8 @@
         <v>0</v>
       </c>
       <c r="E97" s="14"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="47"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="42"/>
       <c r="H97" s="31">
         <v>0</v>
       </c>
@@ -6089,8 +6124,8 @@
         <v>0</v>
       </c>
       <c r="J97" s="14"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="47"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="42"/>
       <c r="M97" s="31">
         <v>0</v>
       </c>
@@ -6098,8 +6133,8 @@
         <v>0</v>
       </c>
       <c r="O97" s="14"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="47"/>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="42"/>
       <c r="R97" s="31">
         <v>0</v>
       </c>
@@ -6107,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="T97" s="14"/>
-      <c r="U97" s="55"/>
+      <c r="U97" s="50"/>
     </row>
     <row r="98" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="12">
@@ -6121,8 +6156,8 @@
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="14"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="47">
+      <c r="F98" s="50"/>
+      <c r="G98" s="42">
         <v>0</v>
       </c>
       <c r="H98" s="31">
@@ -6130,8 +6165,8 @@
       </c>
       <c r="I98" s="31"/>
       <c r="J98" s="14"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="47">
+      <c r="K98" s="50"/>
+      <c r="L98" s="42">
         <v>0</v>
       </c>
       <c r="M98" s="31">
@@ -6139,8 +6174,8 @@
       </c>
       <c r="N98" s="31"/>
       <c r="O98" s="14"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="47">
+      <c r="P98" s="50"/>
+      <c r="Q98" s="42">
         <v>0</v>
       </c>
       <c r="R98" s="31">
@@ -6148,7 +6183,7 @@
       </c>
       <c r="S98" s="31"/>
       <c r="T98" s="14"/>
-      <c r="U98" s="55"/>
+      <c r="U98" s="50"/>
     </row>
     <row r="99" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="12">
@@ -6162,8 +6197,8 @@
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="14"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="47">
+      <c r="F99" s="50"/>
+      <c r="G99" s="42">
         <v>0</v>
       </c>
       <c r="H99" s="31">
@@ -6171,8 +6206,8 @@
       </c>
       <c r="I99" s="31"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="47">
+      <c r="K99" s="50"/>
+      <c r="L99" s="42">
         <v>0</v>
       </c>
       <c r="M99" s="31">
@@ -6180,8 +6215,8 @@
       </c>
       <c r="N99" s="31"/>
       <c r="O99" s="14"/>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="47">
+      <c r="P99" s="50"/>
+      <c r="Q99" s="42">
         <v>0</v>
       </c>
       <c r="R99" s="31">
@@ -6189,7 +6224,7 @@
       </c>
       <c r="S99" s="31"/>
       <c r="T99" s="14"/>
-      <c r="U99" s="55"/>
+      <c r="U99" s="50"/>
     </row>
     <row r="100" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="12">
@@ -6203,8 +6238,8 @@
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="14"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="47">
+      <c r="F100" s="50"/>
+      <c r="G100" s="42">
         <v>0</v>
       </c>
       <c r="H100" s="31">
@@ -6212,8 +6247,8 @@
       </c>
       <c r="I100" s="31"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="47">
+      <c r="K100" s="50"/>
+      <c r="L100" s="42">
         <v>0</v>
       </c>
       <c r="M100" s="31">
@@ -6221,8 +6256,8 @@
       </c>
       <c r="N100" s="31"/>
       <c r="O100" s="14"/>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="47">
+      <c r="P100" s="50"/>
+      <c r="Q100" s="42">
         <v>0</v>
       </c>
       <c r="R100" s="31">
@@ -6230,7 +6265,7 @@
       </c>
       <c r="S100" s="31"/>
       <c r="T100" s="14"/>
-      <c r="U100" s="55"/>
+      <c r="U100" s="50"/>
     </row>
     <row r="101" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="12">
@@ -6244,8 +6279,8 @@
         <v>0</v>
       </c>
       <c r="E101" s="14"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="47"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="42"/>
       <c r="H101" s="31">
         <v>0</v>
       </c>
@@ -6253,8 +6288,8 @@
         <v>0</v>
       </c>
       <c r="J101" s="14"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="47"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="42"/>
       <c r="M101" s="31">
         <v>0</v>
       </c>
@@ -6262,8 +6297,8 @@
         <v>0</v>
       </c>
       <c r="O101" s="14"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="47"/>
+      <c r="P101" s="50"/>
+      <c r="Q101" s="42"/>
       <c r="R101" s="31">
         <v>0</v>
       </c>
@@ -6271,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="T101" s="14"/>
-      <c r="U101" s="55"/>
+      <c r="U101" s="50"/>
     </row>
     <row r="102" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="12">
@@ -6285,8 +6320,8 @@
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="14"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="47">
+      <c r="F102" s="50"/>
+      <c r="G102" s="42">
         <v>0</v>
       </c>
       <c r="H102" s="31">
@@ -6294,8 +6329,8 @@
       </c>
       <c r="I102" s="31"/>
       <c r="J102" s="14"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="47">
+      <c r="K102" s="50"/>
+      <c r="L102" s="42">
         <v>0</v>
       </c>
       <c r="M102" s="31">
@@ -6303,8 +6338,8 @@
       </c>
       <c r="N102" s="31"/>
       <c r="O102" s="14"/>
-      <c r="P102" s="55"/>
-      <c r="Q102" s="47">
+      <c r="P102" s="50"/>
+      <c r="Q102" s="42">
         <v>0</v>
       </c>
       <c r="R102" s="31">
@@ -6312,7 +6347,7 @@
       </c>
       <c r="S102" s="31"/>
       <c r="T102" s="14"/>
-      <c r="U102" s="55"/>
+      <c r="U102" s="50"/>
     </row>
     <row r="103" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="12">
@@ -6326,8 +6361,8 @@
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="14"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="47">
+      <c r="F103" s="50"/>
+      <c r="G103" s="42">
         <v>0</v>
       </c>
       <c r="H103" s="31">
@@ -6335,8 +6370,8 @@
       </c>
       <c r="I103" s="31"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="47">
+      <c r="K103" s="50"/>
+      <c r="L103" s="42">
         <v>0</v>
       </c>
       <c r="M103" s="31">
@@ -6344,8 +6379,8 @@
       </c>
       <c r="N103" s="31"/>
       <c r="O103" s="14"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="47">
+      <c r="P103" s="50"/>
+      <c r="Q103" s="42">
         <v>0</v>
       </c>
       <c r="R103" s="31">
@@ -6353,7 +6388,7 @@
       </c>
       <c r="S103" s="31"/>
       <c r="T103" s="14"/>
-      <c r="U103" s="55"/>
+      <c r="U103" s="50"/>
     </row>
     <row r="104" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="12">
@@ -6367,8 +6402,8 @@
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="14"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="47">
+      <c r="F104" s="50"/>
+      <c r="G104" s="42">
         <v>0</v>
       </c>
       <c r="H104" s="31">
@@ -6376,8 +6411,8 @@
       </c>
       <c r="I104" s="31"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="47">
+      <c r="K104" s="50"/>
+      <c r="L104" s="42">
         <v>0</v>
       </c>
       <c r="M104" s="31">
@@ -6385,8 +6420,8 @@
       </c>
       <c r="N104" s="31"/>
       <c r="O104" s="14"/>
-      <c r="P104" s="55"/>
-      <c r="Q104" s="47">
+      <c r="P104" s="50"/>
+      <c r="Q104" s="42">
         <v>0</v>
       </c>
       <c r="R104" s="31">
@@ -6394,7 +6429,7 @@
       </c>
       <c r="S104" s="31"/>
       <c r="T104" s="14"/>
-      <c r="U104" s="55"/>
+      <c r="U104" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6413,7 +6448,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M21"/>
@@ -6432,44 +6467,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="39">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42">
-        <v>1</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42">
-        <v>2</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42">
+      <c r="B2" s="64">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70">
+        <v>1</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70">
+        <v>2</v>
+      </c>
+      <c r="I2" s="65"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70">
         <v>3</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -6836,7 +6871,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P104"/>
@@ -6855,24 +6890,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD59AAF-A3D2-3047-A83B-283D61323AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A2C1C-2224-DB49-A59E-7DED97577F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -865,6 +865,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,7 +2038,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2149,14 +2155,14 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="41">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
+      <c r="B3" s="71">
+        <v>5017</v>
+      </c>
+      <c r="C3" s="72">
+        <v>-4983</v>
+      </c>
+      <c r="D3" s="72">
+        <v>-33</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="46"/>
@@ -3132,11 +3138,11 @@
       <c r="D26" s="61"/>
       <c r="E26" s="62"/>
       <c r="F26" s="50"/>
-      <c r="G26" s="42">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31">
-        <v>0</v>
+      <c r="G26" s="60">
+        <v>4950</v>
+      </c>
+      <c r="H26" s="61">
+        <v>-4950</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="14"/>
@@ -6877,10 +6883,10 @@
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A2C1C-2224-DB49-A59E-7DED97577F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27102B-9157-C44F-916A-6C13C1218583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,12 +125,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -652,7 +654,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -845,6 +847,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -866,10 +874,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2049,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2057,34 +2068,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="64">
-        <v>0</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67">
-        <v>1</v>
-      </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67">
-        <v>2</v>
-      </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="67">
+      <c r="B1" s="66">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69">
+        <v>1</v>
+      </c>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69">
+        <v>2</v>
+      </c>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="69">
         <v>3</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2155,13 +2166,13 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="64">
         <v>5017</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="65">
         <v>-4983</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="65">
         <v>-33</v>
       </c>
       <c r="E3" s="9"/>
@@ -2218,25 +2229,25 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="47"/>
-      <c r="G4" s="42">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="G4" s="60">
+        <v>0</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0</v>
+      </c>
+      <c r="I4" s="61">
         <v>0</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="47"/>
-      <c r="L4" s="42">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0</v>
+      <c r="L4" s="60">
+        <v>2458</v>
+      </c>
+      <c r="M4" s="61">
+        <v>-7492</v>
+      </c>
+      <c r="N4" s="61">
+        <v>5033</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="47"/>
@@ -2934,19 +2945,19 @@
       <c r="E21" s="23"/>
       <c r="F21" s="49"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="37">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
+      <c r="H21" s="75">
+        <v>-2425</v>
+      </c>
+      <c r="I21" s="75">
+        <v>2425</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="49"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="23">
-        <v>0</v>
-      </c>
-      <c r="N21" s="23">
+      <c r="M21" s="74">
+        <v>0</v>
+      </c>
+      <c r="N21" s="74">
         <v>0</v>
       </c>
       <c r="O21" s="23"/>
@@ -3056,19 +3067,19 @@
       <c r="D24" s="31"/>
       <c r="E24" s="14"/>
       <c r="F24" s="50"/>
-      <c r="G24" s="42">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31">
-        <v>0</v>
+      <c r="G24" s="60">
+        <v>-5050</v>
+      </c>
+      <c r="H24" s="61">
+        <v>5050</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="14"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="54">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14">
+      <c r="L24" s="73">
+        <v>0</v>
+      </c>
+      <c r="M24" s="62">
         <v>0</v>
       </c>
       <c r="N24" s="14"/>
@@ -6473,44 +6484,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="64">
-        <v>0</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70">
-        <v>1</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70">
-        <v>2</v>
-      </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70">
+      <c r="B2" s="66">
+        <v>0</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72">
+        <v>2</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72">
         <v>3</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -6886,7 +6897,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6896,24 +6907,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -11836,7 +11847,7 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="29" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27102B-9157-C44F-916A-6C13C1218583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7287039-2040-AC4E-B003-0C73288F72DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -853,6 +853,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -873,15 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2049,7 +2049,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2068,34 +2068,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="66">
-        <v>0</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69">
-        <v>1</v>
-      </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69">
-        <v>2</v>
-      </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69">
+      <c r="B1" s="69">
+        <v>0</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72">
+        <v>1</v>
+      </c>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72">
+        <v>2</v>
+      </c>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72">
         <v>3</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2945,19 +2945,19 @@
       <c r="E21" s="23"/>
       <c r="F21" s="49"/>
       <c r="G21" s="44"/>
-      <c r="H21" s="75">
+      <c r="H21" s="68">
         <v>-2425</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="68">
         <v>2425</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="49"/>
       <c r="L21" s="53"/>
-      <c r="M21" s="74">
-        <v>0</v>
-      </c>
-      <c r="N21" s="74">
+      <c r="M21" s="67">
+        <v>0</v>
+      </c>
+      <c r="N21" s="67">
         <v>0</v>
       </c>
       <c r="O21" s="23"/>
@@ -3076,7 +3076,7 @@
       <c r="I24" s="31"/>
       <c r="J24" s="14"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="73">
+      <c r="L24" s="66">
         <v>0</v>
       </c>
       <c r="M24" s="62">
@@ -6484,44 +6484,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="66">
-        <v>0</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72">
-        <v>1</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72">
-        <v>2</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72">
+      <c r="B2" s="69">
+        <v>0</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75">
+        <v>2</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75">
         <v>3</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -6907,24 +6907,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7287039-2040-AC4E-B003-0C73288F72DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5755BE0-14AF-D743-8C7E-1C8A20E507C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2046,10 +2046,10 @@
   <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6897,7 +6897,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5755BE0-14AF-D743-8C7E-1C8A20E507C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639EBAC5-474A-9446-BFBA-E4AE346B18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -2045,11 +2045,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6474,7 +6474,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6568,51 +6568,115 @@
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
       <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6620,186 +6684,370 @@
         <v>3</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
       <c r="K7" s="16"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
       <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
       <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
       <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -6807,67 +7055,131 @@
         <v>14</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
       <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
       <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
       <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>17</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="18">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
       <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
       <c r="M21" s="19"/>
     </row>
   </sheetData>
@@ -6893,11 +7205,11 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639EBAC5-474A-9446-BFBA-E4AE346B18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD68996-8706-E34A-BD07-BBE636A9B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -2045,11 +2045,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2177,14 +2177,14 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="41">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28">
-        <v>0</v>
+      <c r="G3" s="64">
+        <v>-4983</v>
+      </c>
+      <c r="H3" s="65">
+        <v>17</v>
+      </c>
+      <c r="I3" s="65">
+        <v>4967</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="46"/>
@@ -2739,11 +2739,11 @@
       <c r="D16" s="31"/>
       <c r="E16" s="14"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="42">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
-        <v>0</v>
+      <c r="G16" s="60">
+        <v>-10050</v>
+      </c>
+      <c r="H16" s="61">
+        <v>10050</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="14"/>
@@ -7205,11 +7205,11 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD68996-8706-E34A-BD07-BBE636A9B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312F7C5-D7A6-4440-81E5-BF03774066DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -882,6 +882,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2045,11 +2051,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6470,11 +6476,11 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6595,7 +6601,7 @@
       <c r="J4" s="10">
         <v>0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="77">
         <v>1</v>
       </c>
       <c r="L4" s="9">
@@ -6618,8 +6624,8 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
-        <v>0</v>
+      <c r="E5" s="76">
+        <v>1</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -6756,8 +6762,8 @@
         <v>0</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16">
-        <v>0</v>
+      <c r="E9" s="76">
+        <v>1</v>
       </c>
       <c r="F9" s="14">
         <v>0</v>
@@ -6860,8 +6866,8 @@
       <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
+      <c r="F12" s="62">
+        <v>1</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
@@ -7209,7 +7215,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312F7C5-D7A6-4440-81E5-BF03774066DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D4A29-83D8-0B4B-8014-DB64D65E53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -862,6 +862,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -882,12 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2052,10 @@
   <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2074,34 +2074,34 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="69">
-        <v>0</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72">
-        <v>1</v>
-      </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72">
-        <v>2</v>
-      </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="72">
+      <c r="B1" s="71">
+        <v>0</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74">
+        <v>1</v>
+      </c>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74">
+        <v>2</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74">
         <v>3</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -6480,7 +6480,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6490,44 +6490,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="69">
-        <v>0</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75">
-        <v>1</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75">
-        <v>2</v>
-      </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75">
+      <c r="B2" s="71">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77">
+        <v>1</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77">
+        <v>2</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77">
         <v>3</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -6601,7 +6601,7 @@
       <c r="J4" s="10">
         <v>0</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="70">
         <v>1</v>
       </c>
       <c r="L4" s="9">
@@ -6624,7 +6624,7 @@
       <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="69">
         <v>1</v>
       </c>
       <c r="F5" s="14">
@@ -6680,8 +6680,8 @@
       <c r="K6" s="16">
         <v>0</v>
       </c>
-      <c r="L6" s="14">
-        <v>0</v>
+      <c r="L6" s="62">
+        <v>1</v>
       </c>
       <c r="M6" s="14"/>
     </row>
@@ -6711,8 +6711,8 @@
         <v>0</v>
       </c>
       <c r="K7" s="16"/>
-      <c r="L7" s="14">
-        <v>0</v>
+      <c r="L7" s="62">
+        <v>1</v>
       </c>
       <c r="M7" s="14">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="76">
+      <c r="E9" s="69">
         <v>1</v>
       </c>
       <c r="F9" s="14">
@@ -6809,8 +6809,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="16">
-        <v>0</v>
+      <c r="K10" s="69">
+        <v>1</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -6842,8 +6842,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="16">
-        <v>0</v>
+      <c r="K11" s="69">
+        <v>1</v>
       </c>
       <c r="L11" s="14">
         <v>0</v>
@@ -6917,8 +6917,8 @@
         <v>0</v>
       </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="14">
-        <v>0</v>
+      <c r="L13" s="62">
+        <v>1</v>
       </c>
       <c r="M13" s="14">
         <v>0</v>
@@ -6982,8 +6982,8 @@
         <v>0</v>
       </c>
       <c r="J15" s="15"/>
-      <c r="K15" s="16">
-        <v>0</v>
+      <c r="K15" s="69">
+        <v>1</v>
       </c>
       <c r="L15" s="14">
         <v>0</v>
@@ -7082,8 +7082,8 @@
         <v>0</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="14">
-        <v>0</v>
+      <c r="L18" s="62">
+        <v>1</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
@@ -7117,7 +7117,7 @@
       <c r="K19" s="16">
         <v>0</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="62">
         <v>0</v>
       </c>
       <c r="M19" s="14"/>
@@ -7215,7 +7215,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7225,24 +7225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0D4A29-83D8-0B4B-8014-DB64D65E53C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07B3B3-3B97-E148-82EC-17191045766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -2051,11 +2051,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2500,11 +2500,11 @@
       <c r="I10" s="31"/>
       <c r="J10" s="14"/>
       <c r="K10" s="47"/>
-      <c r="L10" s="42">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0</v>
+      <c r="L10" s="60">
+        <v>4950</v>
+      </c>
+      <c r="M10" s="61">
+        <v>-4950</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="14"/>
@@ -6476,11 +6476,11 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7215,7 +7215,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07B3B3-3B97-E148-82EC-17191045766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E026B-F7EE-5243-83BC-DE968958D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -2051,11 +2051,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7211,11 +7211,11 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/tests/src/blueprint/human strategy.xlsx
+++ b/tests/src/blueprint/human strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marzukrashid/Downloads/fishbait/fishbait/tests/src/blueprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E026B-F7EE-5243-83BC-DE968958D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD791E7-119C-9F42-B76D-5ECF375BD8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regrets" sheetId="1" r:id="rId1"/>
@@ -2051,11 +2051,11 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7211,11 +7211,11 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
